--- a/JPG Gym Spreadsheet.xlsx
+++ b/JPG Gym Spreadsheet.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="92">
+  <si>
+    <t>Exercise</t>
+  </si>
   <si>
     <t>Set</t>
   </si>
@@ -30,9 +33,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Neural Phase: Week 1</t>
   </si>
   <si>
     <t>Monday: Upper</t>
@@ -110,9 +110,6 @@
     <t>3x4-7 Stiff Leg Hamstring Bias RDL (3-2-1-0 | 3-5m)</t>
   </si>
   <si>
-    <t>Neural Phase: Week 2</t>
-  </si>
-  <si>
     <t>10:6</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>30:7</t>
   </si>
   <si>
-    <t>Neural Phase: Week 3</t>
-  </si>
-  <si>
     <t>70:5</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
   </si>
   <si>
     <t>80:4</t>
-  </si>
-  <si>
-    <t>Neural Phase: Week 4</t>
   </si>
   <si>
     <t>20:5</t>
@@ -192,9 +183,6 @@
   </si>
   <si>
     <t>70:7</t>
-  </si>
-  <si>
-    <t>Hypertrophy Phase: Week 1 (5)</t>
   </si>
   <si>
     <t>4x6-8 Flat DB Bench (3-1-1-0 | 3-4m)</t>
@@ -236,9 +224,6 @@
     <t>3x6-10 Stiff Leg Hamstring Bias RDL (3-2-1-0 | 3-4m)</t>
   </si>
   <si>
-    <t>Hypertrophy Phase: Week 2 (6)</t>
-  </si>
-  <si>
     <t>12:9</t>
   </si>
   <si>
@@ -254,31 +239,19 @@
     <t>52.5:8</t>
   </si>
   <si>
-    <t>Hypertrophy Phase: Week 3 (7)</t>
-  </si>
-  <si>
     <t>18:6</t>
   </si>
   <si>
     <t>12.5:10</t>
   </si>
   <si>
-    <t>Hypertrophy Phase: Week 4 (8)</t>
-  </si>
-  <si>
     <t>57.5:10</t>
-  </si>
-  <si>
-    <t>Hypertrophy Phase: Week 5 (9)</t>
   </si>
   <si>
     <t>70:8</t>
   </si>
   <si>
     <t>55:9</t>
-  </si>
-  <si>
-    <t>Hypertrophy Phase: Week 6 (10)</t>
   </si>
   <si>
     <t>4.5:12</t>
@@ -366,15 +339,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FFD0021B"/>
-      <name val="SFMono-Regular"/>
-    </font>
-    <font>
       <u/>
       <sz val="11.0"/>
       <color rgb="FF7E3794"/>
       <name val="Inconsolata"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFD0021B"/>
+      <name val="SFMono-Regular"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -548,13 +521,10 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -565,7 +535,7 @@
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -573,6 +543,9 @@
     </xf>
     <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="9" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -653,7 +626,6 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -676,10 +648,11 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -803,11 +776,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1177624293"/>
-        <c:axId val="1573039818"/>
+        <c:axId val="1250770128"/>
+        <c:axId val="1272250235"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1177624293"/>
+        <c:axId val="1250770128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -859,10 +832,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1573039818"/>
+        <c:crossAx val="1272250235"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1573039818"/>
+        <c:axId val="1272250235"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -937,7 +910,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1177624293"/>
+        <c:crossAx val="1250770128"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1029,11 +1002,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1235622343"/>
-        <c:axId val="1973567532"/>
+        <c:axId val="1170026213"/>
+        <c:axId val="2046298322"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1235622343"/>
+        <c:axId val="1170026213"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,10 +1058,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1973567532"/>
+        <c:crossAx val="2046298322"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1973567532"/>
+        <c:axId val="2046298322"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1136,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1235622343"/>
+        <c:crossAx val="1170026213"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1255,11 +1228,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="910123740"/>
-        <c:axId val="622994312"/>
+        <c:axId val="571991557"/>
+        <c:axId val="1816708064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="910123740"/>
+        <c:axId val="571991557"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1311,10 +1284,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622994312"/>
+        <c:crossAx val="1816708064"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="622994312"/>
+        <c:axId val="1816708064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,7 +1362,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="910123740"/>
+        <c:crossAx val="571991557"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1481,11 +1454,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1369699370"/>
-        <c:axId val="1374646283"/>
+        <c:axId val="1953784737"/>
+        <c:axId val="587116531"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1369699370"/>
+        <c:axId val="1953784737"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,10 +1510,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1374646283"/>
+        <c:crossAx val="587116531"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1374646283"/>
+        <c:axId val="587116531"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,7 +1588,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1369699370"/>
+        <c:crossAx val="1953784737"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1707,11 +1680,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2132379975"/>
-        <c:axId val="1473681018"/>
+        <c:axId val="1670722915"/>
+        <c:axId val="1549122804"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2132379975"/>
+        <c:axId val="1670722915"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1763,10 +1736,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1473681018"/>
+        <c:crossAx val="1549122804"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1473681018"/>
+        <c:axId val="1549122804"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1841,7 +1814,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132379975"/>
+        <c:crossAx val="1670722915"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1933,11 +1906,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="417652264"/>
-        <c:axId val="1515546720"/>
+        <c:axId val="1353318101"/>
+        <c:axId val="664218820"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="417652264"/>
+        <c:axId val="1353318101"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1989,10 +1962,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1515546720"/>
+        <c:crossAx val="664218820"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1515546720"/>
+        <c:axId val="664218820"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2067,7 +2040,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417652264"/>
+        <c:crossAx val="1353318101"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2159,11 +2132,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="991496659"/>
-        <c:axId val="1624737451"/>
+        <c:axId val="1780049602"/>
+        <c:axId val="1034560137"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="991496659"/>
+        <c:axId val="1780049602"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,10 +2188,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1624737451"/>
+        <c:crossAx val="1034560137"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1624737451"/>
+        <c:axId val="1034560137"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2293,7 +2266,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="991496659"/>
+        <c:crossAx val="1780049602"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2385,11 +2358,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1149418818"/>
-        <c:axId val="1433035260"/>
+        <c:axId val="812385735"/>
+        <c:axId val="541753539"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1149418818"/>
+        <c:axId val="812385735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2441,10 +2414,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1433035260"/>
+        <c:crossAx val="541753539"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1433035260"/>
+        <c:axId val="541753539"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2519,7 +2492,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1149418818"/>
+        <c:crossAx val="812385735"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2611,11 +2584,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="941720844"/>
-        <c:axId val="1000246520"/>
+        <c:axId val="975230436"/>
+        <c:axId val="520632190"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="941720844"/>
+        <c:axId val="975230436"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,10 +2640,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1000246520"/>
+        <c:crossAx val="520632190"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1000246520"/>
+        <c:axId val="520632190"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,7 +2718,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="941720844"/>
+        <c:crossAx val="975230436"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2837,11 +2810,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="392111867"/>
-        <c:axId val="1335406664"/>
+        <c:axId val="1648329932"/>
+        <c:axId val="733684474"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="392111867"/>
+        <c:axId val="1648329932"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2893,10 +2866,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1335406664"/>
+        <c:crossAx val="733684474"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1335406664"/>
+        <c:axId val="733684474"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2971,7 +2944,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392111867"/>
+        <c:crossAx val="1648329932"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3063,11 +3036,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="375586293"/>
-        <c:axId val="11554266"/>
+        <c:axId val="1239870511"/>
+        <c:axId val="1960350808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="375586293"/>
+        <c:axId val="1239870511"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3119,10 +3092,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11554266"/>
+        <c:crossAx val="1960350808"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11554266"/>
+        <c:axId val="1960350808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3170,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375586293"/>
+        <c:crossAx val="1239870511"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3289,11 +3262,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1302019558"/>
-        <c:axId val="1494657286"/>
+        <c:axId val="1602420467"/>
+        <c:axId val="2076424572"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1302019558"/>
+        <c:axId val="1602420467"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3345,10 +3318,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1494657286"/>
+        <c:crossAx val="2076424572"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1494657286"/>
+        <c:axId val="2076424572"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3423,7 +3396,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1302019558"/>
+        <c:crossAx val="1602420467"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3515,11 +3488,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="318276340"/>
-        <c:axId val="480483953"/>
+        <c:axId val="457891289"/>
+        <c:axId val="575425458"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="318276340"/>
+        <c:axId val="457891289"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3571,10 +3544,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480483953"/>
+        <c:crossAx val="575425458"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="480483953"/>
+        <c:axId val="575425458"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3649,7 +3622,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318276340"/>
+        <c:crossAx val="457891289"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3741,11 +3714,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1371510576"/>
-        <c:axId val="188755742"/>
+        <c:axId val="1428008195"/>
+        <c:axId val="1660068485"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1371510576"/>
+        <c:axId val="1428008195"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3797,10 +3770,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188755742"/>
+        <c:crossAx val="1660068485"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188755742"/>
+        <c:axId val="1660068485"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3875,7 +3848,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1371510576"/>
+        <c:crossAx val="1428008195"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3967,11 +3940,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="342748874"/>
-        <c:axId val="1348828533"/>
+        <c:axId val="2130200590"/>
+        <c:axId val="1103593333"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="342748874"/>
+        <c:axId val="2130200590"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4023,10 +3996,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1348828533"/>
+        <c:crossAx val="1103593333"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1348828533"/>
+        <c:axId val="1103593333"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4101,7 +4074,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342748874"/>
+        <c:crossAx val="2130200590"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4193,11 +4166,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="635642752"/>
-        <c:axId val="533041417"/>
+        <c:axId val="1219003275"/>
+        <c:axId val="2053685606"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="635642752"/>
+        <c:axId val="1219003275"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4249,10 +4222,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533041417"/>
+        <c:crossAx val="2053685606"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="533041417"/>
+        <c:axId val="2053685606"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4327,7 +4300,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635642752"/>
+        <c:crossAx val="1219003275"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4419,11 +4392,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="152873511"/>
-        <c:axId val="1144488522"/>
+        <c:axId val="442069929"/>
+        <c:axId val="1984909376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152873511"/>
+        <c:axId val="442069929"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4475,10 +4448,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1144488522"/>
+        <c:crossAx val="1984909376"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1144488522"/>
+        <c:axId val="1984909376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4553,7 +4526,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152873511"/>
+        <c:crossAx val="442069929"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4645,11 +4618,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="124484633"/>
-        <c:axId val="33346913"/>
+        <c:axId val="1076256805"/>
+        <c:axId val="1317707912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124484633"/>
+        <c:axId val="1076256805"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4701,10 +4674,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33346913"/>
+        <c:crossAx val="1317707912"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33346913"/>
+        <c:axId val="1317707912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4779,7 +4752,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124484633"/>
+        <c:crossAx val="1076256805"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4871,11 +4844,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1800891913"/>
-        <c:axId val="532909832"/>
+        <c:axId val="1165790187"/>
+        <c:axId val="1277660751"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1800891913"/>
+        <c:axId val="1165790187"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4927,10 +4900,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532909832"/>
+        <c:crossAx val="1277660751"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="532909832"/>
+        <c:axId val="1277660751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4994,7 +4967,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1800891913"/>
+        <c:crossAx val="1165790187"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5086,11 +5059,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1948569134"/>
-        <c:axId val="1689534914"/>
+        <c:axId val="160144402"/>
+        <c:axId val="854704626"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1948569134"/>
+        <c:axId val="160144402"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5142,10 +5115,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1689534914"/>
+        <c:crossAx val="854704626"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1689534914"/>
+        <c:axId val="854704626"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5220,7 +5193,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1948569134"/>
+        <c:crossAx val="160144402"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5312,11 +5285,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="95930504"/>
-        <c:axId val="1194178842"/>
+        <c:axId val="669271674"/>
+        <c:axId val="521240727"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95930504"/>
+        <c:axId val="669271674"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5368,10 +5341,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1194178842"/>
+        <c:crossAx val="521240727"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1194178842"/>
+        <c:axId val="521240727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5446,7 +5419,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95930504"/>
+        <c:crossAx val="669271674"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -6226,18 +6199,14 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="46.63"/>
-    <col customWidth="1" min="11" max="11" width="28.5"/>
-    <col customWidth="1" min="12" max="12" width="46.63"/>
-    <col customWidth="1" min="13" max="13" width="25.63"/>
-    <col customWidth="1" min="14" max="14" width="43.0"/>
-    <col customWidth="1" min="15" max="15" width="43.38"/>
-    <col customWidth="1" min="16" max="16" width="37.5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2">
         <v>1.0</v>
@@ -6251,43 +6220,38 @@
       <c r="F1" s="2">
         <v>4.0</v>
       </c>
-      <c r="H1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
@@ -6301,7 +6265,6 @@
       <c r="G4" s="14">
         <v>44872.0</v>
       </c>
-      <c r="H4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
@@ -6323,7 +6286,6 @@
         <v>5.0</v>
       </c>
       <c r="G5" s="14"/>
-      <c r="H5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
@@ -6343,7 +6305,6 @@
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
@@ -6365,7 +6326,6 @@
         <v>5.0</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
@@ -6387,7 +6347,6 @@
         <v>12.0</v>
       </c>
       <c r="G8" s="14"/>
-      <c r="H8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
@@ -6407,7 +6366,6 @@
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="15" t="s">
@@ -6427,7 +6385,6 @@
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
@@ -6441,7 +6398,6 @@
       <c r="G11" s="14">
         <v>44873.0</v>
       </c>
-      <c r="H11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
@@ -6763,14 +6719,12 @@
       <c r="F29" s="19"/>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31">
       <c r="A31" s="11" t="s">
@@ -6889,13 +6843,13 @@
         <v>8.0</v>
       </c>
       <c r="C37" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="E37" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>34</v>
       </c>
       <c r="F37" s="19"/>
     </row>
@@ -7085,7 +7039,7 @@
         <v>50.0</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" s="17">
         <v>8.0</v>
@@ -7106,7 +7060,7 @@
         <v>1.2569444444444444</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
@@ -7182,10 +7136,10 @@
         <v>8.0</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E54" s="23">
         <v>0.3402777777777778</v>
@@ -7216,25 +7170,23 @@
         <v>30.0</v>
       </c>
       <c r="C56" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="E56" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="17" t="s">
-        <v>40</v>
-      </c>
       <c r="F56" s="19"/>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="10"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="9"/>
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
@@ -7414,16 +7366,16 @@
         <v>90.0</v>
       </c>
       <c r="C68" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>44</v>
-      </c>
       <c r="F68" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69">
@@ -7535,7 +7487,7 @@
         <v>55.0</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D75" s="17">
         <v>6.0</v>
@@ -7666,25 +7618,23 @@
         <v>80.0</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F83" s="19"/>
     </row>
     <row r="84">
-      <c r="A84" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="10"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="9"/>
     </row>
     <row r="85">
       <c r="A85" s="11" t="s">
@@ -7710,7 +7660,7 @@
         <v>3.0</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E86" s="17">
         <v>4.0</v>
@@ -7751,10 +7701,10 @@
         <v>3.0</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89">
@@ -7765,16 +7715,16 @@
         <v>4.0</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D89" s="23">
         <v>0.1736111111111111</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90">
@@ -7791,7 +7741,7 @@
         <v>8.0</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F90" s="19"/>
     </row>
@@ -7864,13 +7814,13 @@
         <v>80.0</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D95" s="17">
         <v>3.0</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F95" s="17">
         <v>3.0</v>
@@ -7887,10 +7837,10 @@
         <v>3.341666666666667</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F96" s="19"/>
     </row>
@@ -8084,13 +8034,13 @@
         <v>8.7</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F108" s="19"/>
     </row>
@@ -8118,7 +8068,7 @@
         <v>80.0</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D110" s="17">
         <v>6.0</v>
@@ -8129,14 +8079,12 @@
       <c r="F110" s="19"/>
     </row>
     <row r="111">
-      <c r="A111" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="10"/>
+      <c r="A111" s="7"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="9"/>
     </row>
     <row r="112">
       <c r="A112" s="11" t="s">
@@ -8153,7 +8101,7 @@
     </row>
     <row r="113">
       <c r="A113" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B113" s="24"/>
       <c r="C113" s="25"/>
@@ -8173,7 +8121,7 @@
     </row>
     <row r="115">
       <c r="A115" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B115" s="24"/>
       <c r="C115" s="25"/>
@@ -8203,7 +8151,7 @@
     </row>
     <row r="118">
       <c r="A118" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B118" s="26"/>
       <c r="C118" s="25"/>
@@ -8226,7 +8174,7 @@
     </row>
     <row r="120">
       <c r="A120" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="25"/>
@@ -8236,7 +8184,7 @@
     </row>
     <row r="121">
       <c r="A121" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B121" s="24"/>
       <c r="C121" s="25"/>
@@ -8246,7 +8194,7 @@
     </row>
     <row r="122">
       <c r="A122" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B122" s="24"/>
       <c r="C122" s="25"/>
@@ -8256,7 +8204,7 @@
     </row>
     <row r="123">
       <c r="A123" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="25"/>
@@ -8289,7 +8237,7 @@
     </row>
     <row r="126">
       <c r="A126" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B126" s="16">
         <v>18.0</v>
@@ -8327,7 +8275,7 @@
     </row>
     <row r="128">
       <c r="A128" s="18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B128" s="16">
         <v>50.0</v>
@@ -8345,7 +8293,7 @@
     </row>
     <row r="129">
       <c r="A129" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B129" s="16">
         <v>55.0</v>
@@ -8363,7 +8311,7 @@
     </row>
     <row r="130">
       <c r="A130" s="18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B130" s="21">
         <v>30.0</v>
@@ -8402,7 +8350,7 @@
     </row>
     <row r="133">
       <c r="A133" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B133" s="24"/>
       <c r="C133" s="25"/>
@@ -8442,7 +8390,7 @@
     </row>
     <row r="137">
       <c r="A137" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B137" s="24"/>
       <c r="C137" s="25"/>
@@ -8451,14 +8399,12 @@
       <c r="F137" s="19"/>
     </row>
     <row r="138">
-      <c r="A138" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="10"/>
+      <c r="A138" s="7"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="9"/>
     </row>
     <row r="139">
       <c r="A139" s="11" t="s">
@@ -8475,7 +8421,7 @@
     </row>
     <row r="140">
       <c r="A140" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B140" s="16">
         <v>20.0</v>
@@ -8504,16 +8450,16 @@
         <v>9.0</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F141" s="19"/>
     </row>
     <row r="142">
       <c r="A142" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B142" s="16">
         <v>40.0</v>
@@ -8522,13 +8468,13 @@
         <v>6.0</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F142" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="143">
@@ -8571,7 +8517,7 @@
     </row>
     <row r="145">
       <c r="A145" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B145" s="21">
         <v>10.0</v>
@@ -8602,7 +8548,7 @@
     </row>
     <row r="147">
       <c r="A147" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B147" s="24"/>
       <c r="C147" s="25"/>
@@ -8612,7 +8558,7 @@
     </row>
     <row r="148">
       <c r="A148" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B148" s="16">
         <v>200.0</v>
@@ -8632,7 +8578,7 @@
     </row>
     <row r="149">
       <c r="A149" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B149" s="16">
         <v>70.0</v>
@@ -8652,7 +8598,7 @@
     </row>
     <row r="150">
       <c r="A150" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B150" s="16">
         <v>140.0</v>
@@ -8701,7 +8647,7 @@
     </row>
     <row r="153">
       <c r="A153" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B153" s="16">
         <v>18.0</v>
@@ -8733,13 +8679,13 @@
         <v>12.0</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F154" s="19"/>
     </row>
     <row r="155">
       <c r="A155" s="18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B155" s="24"/>
       <c r="C155" s="25"/>
@@ -8749,7 +8695,7 @@
     </row>
     <row r="156">
       <c r="A156" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B156" s="16">
         <v>55.0</v>
@@ -8767,7 +8713,7 @@
     </row>
     <row r="157">
       <c r="A157" s="18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B157" s="26"/>
       <c r="C157" s="25"/>
@@ -8806,7 +8752,7 @@
     </row>
     <row r="160">
       <c r="A160" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B160" s="16">
         <v>7.0</v>
@@ -8867,14 +8813,14 @@
         <v>10.0</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E163" s="19"/>
       <c r="F163" s="19"/>
     </row>
     <row r="164">
       <c r="A164" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B164" s="16">
         <v>80.0</v>
@@ -8891,9 +8837,7 @@
       <c r="F164" s="19"/>
     </row>
     <row r="165">
-      <c r="A165" s="28" t="s">
-        <v>79</v>
-      </c>
+      <c r="A165" s="28"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
       <c r="D165" s="12"/>
@@ -8915,7 +8859,7 @@
     </row>
     <row r="167">
       <c r="A167" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B167" s="33">
         <v>22.0</v>
@@ -8930,7 +8874,7 @@
         <v>4.0</v>
       </c>
       <c r="F167" s="34" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="168">
@@ -8951,7 +8895,7 @@
     </row>
     <row r="169">
       <c r="A169" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B169" s="33">
         <v>35.0</v>
@@ -9003,13 +8947,13 @@
         <v>7.0</v>
       </c>
       <c r="E171" s="34" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F171" s="36"/>
     </row>
     <row r="172">
       <c r="A172" s="32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B172" s="37">
         <v>10.0</v>
@@ -9038,7 +8982,7 @@
     </row>
     <row r="174">
       <c r="A174" s="32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B174" s="39"/>
       <c r="C174" s="40"/>
@@ -9048,7 +8992,7 @@
     </row>
     <row r="175">
       <c r="A175" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B175" s="33">
         <v>240.0</v>
@@ -9068,7 +9012,7 @@
     </row>
     <row r="176">
       <c r="A176" s="35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B176" s="33">
         <v>75.0</v>
@@ -9088,7 +9032,7 @@
     </row>
     <row r="177">
       <c r="A177" s="35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B177" s="33">
         <v>120.0</v>
@@ -9132,14 +9076,10 @@
       <c r="G179" s="20">
         <v>44917.0</v>
       </c>
-      <c r="K179" s="41">
-        <f t="shared" ref="K179:K185" si="1">OFFSET($B$5,(ROW(B16)-1)*27,0)</f>
-        <v>20</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B180" s="33">
         <v>18.0</v>
@@ -9155,10 +9095,6 @@
       </c>
       <c r="F180" s="34">
         <v>7.0</v>
-      </c>
-      <c r="K180" s="41">
-        <f t="shared" si="1"/>
-        <v>20</v>
       </c>
     </row>
     <row r="181">
@@ -9178,14 +9114,10 @@
         <v>8.0</v>
       </c>
       <c r="F181" s="36"/>
-      <c r="K181" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v>B:25</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B182" s="33">
         <v>50.0</v>
@@ -9200,14 +9132,10 @@
         <v>10.0</v>
       </c>
       <c r="F182" s="36"/>
-      <c r="K182" s="41">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B183" s="33">
         <v>55.0</v>
@@ -9220,24 +9148,16 @@
       </c>
       <c r="E183" s="40"/>
       <c r="F183" s="36"/>
-      <c r="K183" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B184" s="42"/>
+        <v>66</v>
+      </c>
+      <c r="B184" s="41"/>
       <c r="C184" s="40"/>
       <c r="D184" s="40"/>
       <c r="E184" s="36"/>
       <c r="F184" s="36"/>
-      <c r="K184" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="29" t="s">
@@ -9251,10 +9171,6 @@
       <c r="G185" s="20">
         <v>44918.0</v>
       </c>
-      <c r="K185" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="32" t="s">
@@ -9274,7 +9190,7 @@
     </row>
     <row r="187">
       <c r="A187" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B187" s="33">
         <v>7.0</v>
@@ -9332,7 +9248,7 @@
         <v>57.5</v>
       </c>
       <c r="C190" s="34" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D190" s="34">
         <v>8.0</v>
@@ -9342,7 +9258,7 @@
     </row>
     <row r="191">
       <c r="A191" s="32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B191" s="33">
         <v>80.0</v>
@@ -9359,9 +9275,7 @@
       <c r="F191" s="36"/>
     </row>
     <row r="192">
-      <c r="A192" s="28" t="s">
-        <v>82</v>
-      </c>
+      <c r="A192" s="28"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
       <c r="D192" s="12"/>
@@ -9383,7 +9297,7 @@
     </row>
     <row r="194">
       <c r="A194" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B194" s="39"/>
       <c r="C194" s="40"/>
@@ -9398,7 +9312,7 @@
       <c r="B195" s="33">
         <v>13.0</v>
       </c>
-      <c r="C195" s="43">
+      <c r="C195" s="42">
         <v>0.5069444444444444</v>
       </c>
       <c r="D195" s="34">
@@ -9411,7 +9325,7 @@
     </row>
     <row r="196">
       <c r="A196" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B196" s="33">
         <v>35.0</v>
@@ -9469,7 +9383,7 @@
     </row>
     <row r="199">
       <c r="A199" s="32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B199" s="37">
         <v>10.0</v>
@@ -9498,7 +9412,7 @@
     </row>
     <row r="201">
       <c r="A201" s="32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B201" s="39"/>
       <c r="C201" s="40"/>
@@ -9508,7 +9422,7 @@
     </row>
     <row r="202">
       <c r="A202" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B202" s="33">
         <v>200.0</v>
@@ -9528,7 +9442,7 @@
     </row>
     <row r="203">
       <c r="A203" s="35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B203" s="33">
         <v>60.0</v>
@@ -9548,7 +9462,7 @@
     </row>
     <row r="204">
       <c r="A204" s="35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B204" s="33">
         <v>140.0</v>
@@ -9566,7 +9480,7 @@
       <c r="A205" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B205" s="42"/>
+      <c r="B205" s="41"/>
       <c r="C205" s="40"/>
       <c r="D205" s="40"/>
       <c r="E205" s="40"/>
@@ -9587,7 +9501,7 @@
     </row>
     <row r="207">
       <c r="A207" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B207" s="33">
         <v>18.0</v>
@@ -9625,7 +9539,7 @@
     </row>
     <row r="209">
       <c r="A209" s="35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B209" s="33">
         <v>55.0</v>
@@ -9641,7 +9555,7 @@
     </row>
     <row r="210">
       <c r="A210" s="35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B210" s="39"/>
       <c r="C210" s="40"/>
@@ -9651,9 +9565,9 @@
     </row>
     <row r="211">
       <c r="A211" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B211" s="42"/>
+        <v>66</v>
+      </c>
+      <c r="B211" s="41"/>
       <c r="C211" s="40"/>
       <c r="D211" s="40"/>
       <c r="E211" s="36"/>
@@ -9690,7 +9604,7 @@
     </row>
     <row r="214">
       <c r="A214" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B214" s="33">
         <v>8.0</v>
@@ -9748,7 +9662,7 @@
         <v>60.0</v>
       </c>
       <c r="C217" s="34" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D217" s="34">
         <v>8.0</v>
@@ -9758,7 +9672,7 @@
     </row>
     <row r="218">
       <c r="A218" s="32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B218" s="33">
         <v>75.0</v>
@@ -9775,9 +9689,7 @@
       <c r="F218" s="36"/>
     </row>
     <row r="219">
-      <c r="A219" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="A219" s="28"/>
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
       <c r="D219" s="12"/>
@@ -9799,7 +9711,7 @@
     </row>
     <row r="221">
       <c r="A221" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B221" s="33">
         <v>20.0</v>
@@ -9837,13 +9749,13 @@
     </row>
     <row r="223">
       <c r="A223" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B223" s="33">
         <v>36.5</v>
       </c>
       <c r="C223" s="34" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D223" s="34">
         <v>8.0</v>
@@ -9893,7 +9805,7 @@
     </row>
     <row r="226">
       <c r="A226" s="32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B226" s="37">
         <v>10.0</v>
@@ -9922,7 +9834,7 @@
     </row>
     <row r="228">
       <c r="A228" s="32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B228" s="33">
         <v>180.0</v>
@@ -9942,7 +9854,7 @@
     </row>
     <row r="229">
       <c r="A229" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B229" s="39"/>
       <c r="C229" s="40"/>
@@ -9952,13 +9864,13 @@
     </row>
     <row r="230">
       <c r="A230" s="35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B230" s="33">
         <v>73.0</v>
       </c>
       <c r="C230" s="34" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D230" s="34">
         <v>8.0</v>
@@ -9972,7 +9884,7 @@
     </row>
     <row r="231">
       <c r="A231" s="35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B231" s="33">
         <v>140.0</v>
@@ -10019,7 +9931,7 @@
     </row>
     <row r="234">
       <c r="A234" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B234" s="33">
         <v>18.0</v>
@@ -10057,7 +9969,7 @@
     </row>
     <row r="236">
       <c r="A236" s="35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B236" s="33">
         <v>60.0</v>
@@ -10075,7 +9987,7 @@
     </row>
     <row r="237">
       <c r="A237" s="35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B237" s="33">
         <v>55.0</v>
@@ -10093,7 +10005,7 @@
     </row>
     <row r="238">
       <c r="A238" s="35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B238" s="37">
         <v>40.0</v>
@@ -10138,7 +10050,7 @@
     </row>
     <row r="241">
       <c r="A241" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B241" s="33">
         <v>8.0</v>
@@ -10199,16 +10111,16 @@
         <v>8.0</v>
       </c>
       <c r="D244" s="34" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E244" s="36"/>
       <c r="F244" s="36"/>
     </row>
     <row r="245">
       <c r="A245" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B245" s="44">
+        <v>68</v>
+      </c>
+      <c r="B245" s="43">
         <v>80.0</v>
       </c>
       <c r="C245" s="34">
@@ -10223,9 +10135,7 @@
       <c r="F245" s="36"/>
     </row>
     <row r="246">
-      <c r="A246" s="28" t="s">
-        <v>87</v>
-      </c>
+      <c r="A246" s="28"/>
       <c r="B246" s="12"/>
       <c r="C246" s="12"/>
       <c r="D246" s="12"/>
@@ -10247,7 +10157,7 @@
     </row>
     <row r="248">
       <c r="A248" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B248" s="33">
         <v>20.0</v>
@@ -10285,7 +10195,7 @@
     </row>
     <row r="250">
       <c r="A250" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B250" s="33">
         <v>40.0</v>
@@ -10343,7 +10253,7 @@
     </row>
     <row r="253">
       <c r="A253" s="32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B253" s="37">
         <v>12.0</v>
@@ -10354,7 +10264,7 @@
       <c r="D253" s="34">
         <v>8.0</v>
       </c>
-      <c r="E253" s="45"/>
+      <c r="E253" s="44"/>
       <c r="F253" s="36"/>
     </row>
     <row r="254">
@@ -10372,7 +10282,7 @@
     </row>
     <row r="255">
       <c r="A255" s="32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B255" s="39"/>
       <c r="C255" s="40"/>
@@ -10382,7 +10292,7 @@
     </row>
     <row r="256">
       <c r="A256" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B256" s="33">
         <v>185.0</v>
@@ -10402,7 +10312,7 @@
     </row>
     <row r="257">
       <c r="A257" s="35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B257" s="33">
         <v>75.0</v>
@@ -10422,7 +10332,7 @@
     </row>
     <row r="258">
       <c r="A258" s="35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B258" s="33">
         <v>150.0</v>
@@ -10469,7 +10379,7 @@
     </row>
     <row r="261">
       <c r="A261" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B261" s="33">
         <v>18.0</v>
@@ -10507,7 +10417,7 @@
     </row>
     <row r="263">
       <c r="A263" s="35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B263" s="33">
         <v>60.0</v>
@@ -10525,7 +10435,7 @@
     </row>
     <row r="264">
       <c r="A264" s="35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B264" s="33">
         <v>55.0</v>
@@ -10539,9 +10449,9 @@
     </row>
     <row r="265">
       <c r="A265" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B265" s="42"/>
+        <v>66</v>
+      </c>
+      <c r="B265" s="41"/>
       <c r="C265" s="34">
         <v>8.0</v>
       </c>
@@ -10582,7 +10492,7 @@
     </row>
     <row r="268">
       <c r="A268" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B268" s="33">
         <v>9.0</v>
@@ -10648,7 +10558,7 @@
     </row>
     <row r="272">
       <c r="A272" s="32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B272" s="33">
         <v>90.0</v>
@@ -10665,9 +10575,7 @@
       <c r="F272" s="36"/>
     </row>
     <row r="273">
-      <c r="A273" s="28" t="s">
-        <v>87</v>
-      </c>
+      <c r="A273" s="28"/>
       <c r="B273" s="12"/>
       <c r="C273" s="12"/>
       <c r="D273" s="12"/>
@@ -10689,7 +10597,7 @@
     </row>
     <row r="275">
       <c r="A275" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B275" s="33">
         <v>20.0</v>
@@ -10727,13 +10635,13 @@
     </row>
     <row r="277">
       <c r="A277" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B277" s="33">
         <v>45.0</v>
       </c>
       <c r="C277" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D277" s="34">
         <v>6.0</v>
@@ -10753,12 +10661,12 @@
         <v>7.0</v>
       </c>
       <c r="C278" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D278" s="43">
+        <v>79</v>
+      </c>
+      <c r="D278" s="42">
         <v>0.21666666666666667</v>
       </c>
-      <c r="E278" s="43">
+      <c r="E278" s="42">
         <v>0.25833333333333336</v>
       </c>
       <c r="F278" s="34">
@@ -10777,7 +10685,7 @@
     </row>
     <row r="280">
       <c r="A280" s="32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B280" s="37">
         <v>12.0</v>
@@ -10788,7 +10696,7 @@
       <c r="D280" s="34">
         <v>8.0</v>
       </c>
-      <c r="E280" s="45"/>
+      <c r="E280" s="44"/>
       <c r="F280" s="36"/>
     </row>
     <row r="281">
@@ -10806,7 +10714,7 @@
     </row>
     <row r="282">
       <c r="A282" s="32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B282" s="39"/>
       <c r="C282" s="40"/>
@@ -10816,7 +10724,7 @@
     </row>
     <row r="283">
       <c r="A283" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B283" s="39"/>
       <c r="C283" s="40"/>
@@ -10826,7 +10734,7 @@
     </row>
     <row r="284">
       <c r="A284" s="35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B284" s="39"/>
       <c r="C284" s="40"/>
@@ -10836,7 +10744,7 @@
     </row>
     <row r="285">
       <c r="A285" s="35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B285" s="39"/>
       <c r="C285" s="40"/>
@@ -10848,7 +10756,7 @@
       <c r="A286" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B286" s="42"/>
+      <c r="B286" s="41"/>
       <c r="C286" s="40"/>
       <c r="D286" s="40"/>
       <c r="E286" s="40"/>
@@ -10869,7 +10777,7 @@
     </row>
     <row r="288">
       <c r="A288" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B288" s="33">
         <v>18.0</v>
@@ -10907,7 +10815,7 @@
     </row>
     <row r="290">
       <c r="A290" s="35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B290" s="33">
         <v>60.0</v>
@@ -10925,7 +10833,7 @@
     </row>
     <row r="291">
       <c r="A291" s="35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B291" s="39"/>
       <c r="C291" s="40"/>
@@ -10935,7 +10843,7 @@
     </row>
     <row r="292">
       <c r="A292" s="35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B292" s="37">
         <v>40.0</v>
@@ -10972,7 +10880,7 @@
     </row>
     <row r="295">
       <c r="A295" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B295" s="39"/>
       <c r="C295" s="40"/>
@@ -11012,7 +10920,7 @@
     </row>
     <row r="299">
       <c r="A299" s="32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B299" s="39"/>
       <c r="C299" s="40"/>
@@ -11021,9 +10929,7 @@
       <c r="F299" s="36"/>
     </row>
     <row r="300">
-      <c r="A300" s="28" t="s">
-        <v>87</v>
-      </c>
+      <c r="A300" s="28"/>
       <c r="B300" s="12"/>
       <c r="C300" s="12"/>
       <c r="D300" s="12"/>
@@ -11045,7 +10951,7 @@
     </row>
     <row r="302">
       <c r="A302" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B302" s="33">
         <v>22.0</v>
@@ -11083,7 +10989,7 @@
     </row>
     <row r="304">
       <c r="A304" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B304" s="33">
         <v>45.0</v>
@@ -11139,7 +11045,7 @@
     </row>
     <row r="307">
       <c r="A307" s="32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B307" s="37">
         <v>12.0</v>
@@ -11148,7 +11054,7 @@
         <v>8.0</v>
       </c>
       <c r="D307" s="40"/>
-      <c r="E307" s="45"/>
+      <c r="E307" s="44"/>
       <c r="F307" s="36"/>
     </row>
     <row r="308">
@@ -11166,7 +11072,7 @@
     </row>
     <row r="309">
       <c r="A309" s="32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B309" s="39"/>
       <c r="C309" s="40"/>
@@ -11176,7 +11082,7 @@
     </row>
     <row r="310">
       <c r="A310" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B310" s="39"/>
       <c r="C310" s="40"/>
@@ -11186,7 +11092,7 @@
     </row>
     <row r="311">
       <c r="A311" s="35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B311" s="39"/>
       <c r="C311" s="40"/>
@@ -11196,7 +11102,7 @@
     </row>
     <row r="312">
       <c r="A312" s="35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B312" s="39"/>
       <c r="C312" s="40"/>
@@ -11208,7 +11114,7 @@
       <c r="A313" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B313" s="42"/>
+      <c r="B313" s="41"/>
       <c r="C313" s="40"/>
       <c r="D313" s="40"/>
       <c r="E313" s="40"/>
@@ -11229,7 +11135,7 @@
     </row>
     <row r="315">
       <c r="A315" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B315" s="39"/>
       <c r="C315" s="40"/>
@@ -11249,7 +11155,7 @@
     </row>
     <row r="317">
       <c r="A317" s="35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B317" s="39"/>
       <c r="C317" s="40"/>
@@ -11259,7 +11165,7 @@
     </row>
     <row r="318">
       <c r="A318" s="35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B318" s="39"/>
       <c r="C318" s="40"/>
@@ -11269,9 +11175,9 @@
     </row>
     <row r="319">
       <c r="A319" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B319" s="42"/>
+        <v>66</v>
+      </c>
+      <c r="B319" s="41"/>
       <c r="C319" s="40"/>
       <c r="D319" s="40"/>
       <c r="E319" s="36"/>
@@ -11302,7 +11208,7 @@
     </row>
     <row r="322">
       <c r="A322" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B322" s="39"/>
       <c r="C322" s="40"/>
@@ -11342,18 +11248,16 @@
     </row>
     <row r="326">
       <c r="A326" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B326" s="46"/>
+        <v>68</v>
+      </c>
+      <c r="B326" s="45"/>
       <c r="C326" s="40"/>
       <c r="D326" s="40"/>
       <c r="E326" s="38"/>
       <c r="F326" s="36"/>
     </row>
     <row r="327">
-      <c r="A327" s="28" t="s">
-        <v>87</v>
-      </c>
+      <c r="A327" s="28"/>
       <c r="B327" s="12"/>
       <c r="C327" s="12"/>
       <c r="D327" s="12"/>
@@ -11375,7 +11279,7 @@
     </row>
     <row r="329">
       <c r="A329" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B329" s="33">
         <v>22.0</v>
@@ -11405,7 +11309,7 @@
     </row>
     <row r="331">
       <c r="A331" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B331" s="39"/>
       <c r="C331" s="40"/>
@@ -11435,7 +11339,7 @@
     </row>
     <row r="334">
       <c r="A334" s="32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B334" s="37">
         <v>12.0</v>
@@ -11444,7 +11348,7 @@
         <v>8.0</v>
       </c>
       <c r="D334" s="40"/>
-      <c r="E334" s="45"/>
+      <c r="E334" s="44"/>
       <c r="F334" s="36"/>
     </row>
     <row r="335">
@@ -11462,7 +11366,7 @@
     </row>
     <row r="336">
       <c r="A336" s="32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B336" s="39"/>
       <c r="C336" s="40"/>
@@ -11472,7 +11376,7 @@
     </row>
     <row r="337">
       <c r="A337" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B337" s="39"/>
       <c r="C337" s="40"/>
@@ -11482,7 +11386,7 @@
     </row>
     <row r="338">
       <c r="A338" s="35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B338" s="39"/>
       <c r="C338" s="40"/>
@@ -11492,7 +11396,7 @@
     </row>
     <row r="339">
       <c r="A339" s="35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B339" s="39"/>
       <c r="C339" s="40"/>
@@ -11504,7 +11408,7 @@
       <c r="A340" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B340" s="42"/>
+      <c r="B340" s="41"/>
       <c r="C340" s="40"/>
       <c r="D340" s="40"/>
       <c r="E340" s="40"/>
@@ -11525,7 +11429,7 @@
     </row>
     <row r="342">
       <c r="A342" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B342" s="39"/>
       <c r="C342" s="40"/>
@@ -11545,7 +11449,7 @@
     </row>
     <row r="344">
       <c r="A344" s="35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B344" s="39"/>
       <c r="C344" s="40"/>
@@ -11555,7 +11459,7 @@
     </row>
     <row r="345">
       <c r="A345" s="35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B345" s="39"/>
       <c r="C345" s="40"/>
@@ -11565,9 +11469,9 @@
     </row>
     <row r="346">
       <c r="A346" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B346" s="42"/>
+        <v>66</v>
+      </c>
+      <c r="B346" s="41"/>
       <c r="C346" s="40"/>
       <c r="D346" s="40"/>
       <c r="E346" s="36"/>
@@ -11598,7 +11502,7 @@
     </row>
     <row r="349">
       <c r="A349" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B349" s="39"/>
       <c r="C349" s="40"/>
@@ -11638,7 +11542,7 @@
     </row>
     <row r="353">
       <c r="A353" s="32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B353" s="39"/>
       <c r="C353" s="40"/>
@@ -11647,9 +11551,7 @@
       <c r="F353" s="36"/>
     </row>
     <row r="354">
-      <c r="A354" s="28" t="s">
-        <v>87</v>
-      </c>
+      <c r="A354" s="28"/>
       <c r="B354" s="12"/>
       <c r="C354" s="12"/>
       <c r="D354" s="12"/>
@@ -11671,7 +11573,7 @@
     </row>
     <row r="356">
       <c r="A356" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B356" s="33">
         <v>20.0</v>
@@ -11709,7 +11611,7 @@
     </row>
     <row r="358">
       <c r="A358" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B358" s="33">
         <v>40.0</v>
@@ -11767,7 +11669,7 @@
     </row>
     <row r="361">
       <c r="A361" s="32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B361" s="37">
         <v>9.0</v>
@@ -11778,7 +11680,7 @@
       <c r="D361" s="34">
         <v>8.0</v>
       </c>
-      <c r="E361" s="45"/>
+      <c r="E361" s="44"/>
       <c r="F361" s="36"/>
     </row>
     <row r="362">
@@ -11796,7 +11698,7 @@
     </row>
     <row r="363">
       <c r="A363" s="32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B363" s="39"/>
       <c r="C363" s="40"/>
@@ -11806,7 +11708,7 @@
     </row>
     <row r="364">
       <c r="A364" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B364" s="33">
         <v>180.0</v>
@@ -11826,7 +11728,7 @@
     </row>
     <row r="365">
       <c r="A365" s="35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B365" s="33">
         <v>65.0</v>
@@ -11846,7 +11748,7 @@
     </row>
     <row r="366">
       <c r="A366" s="35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B366" s="33">
         <v>135.0</v>
@@ -11876,7 +11778,7 @@
         <v>10.0</v>
       </c>
       <c r="E367" s="34" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F367" s="36"/>
     </row>
@@ -11895,7 +11797,7 @@
     </row>
     <row r="369">
       <c r="A369" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B369" s="39"/>
       <c r="C369" s="40"/>
@@ -11915,7 +11817,7 @@
     </row>
     <row r="371">
       <c r="A371" s="35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B371" s="39"/>
       <c r="C371" s="40"/>
@@ -11925,7 +11827,7 @@
     </row>
     <row r="372">
       <c r="A372" s="35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B372" s="39"/>
       <c r="C372" s="40"/>
@@ -11935,9 +11837,9 @@
     </row>
     <row r="373">
       <c r="A373" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B373" s="42"/>
+        <v>66</v>
+      </c>
+      <c r="B373" s="41"/>
       <c r="C373" s="40"/>
       <c r="D373" s="40"/>
       <c r="E373" s="36"/>
@@ -11974,7 +11876,7 @@
     </row>
     <row r="376">
       <c r="A376" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B376" s="33">
         <v>6.0</v>
@@ -12036,18 +11938,16 @@
     </row>
     <row r="380">
       <c r="A380" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B380" s="46"/>
+        <v>68</v>
+      </c>
+      <c r="B380" s="45"/>
       <c r="C380" s="40"/>
       <c r="D380" s="40"/>
       <c r="E380" s="38"/>
       <c r="F380" s="36"/>
     </row>
     <row r="381">
-      <c r="A381" s="28" t="s">
-        <v>87</v>
-      </c>
+      <c r="A381" s="28"/>
       <c r="B381" s="12"/>
       <c r="C381" s="12"/>
       <c r="D381" s="12"/>
@@ -12069,13 +11969,13 @@
     </row>
     <row r="383">
       <c r="A383" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B383" s="33">
         <v>20.0</v>
       </c>
       <c r="C383" s="34" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D383" s="34">
         <v>6.0</v>
@@ -12107,7 +12007,7 @@
     </row>
     <row r="385">
       <c r="A385" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B385" s="39"/>
       <c r="C385" s="40"/>
@@ -12145,7 +12045,7 @@
     </row>
     <row r="388">
       <c r="A388" s="32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B388" s="37">
         <v>9.0</v>
@@ -12156,7 +12056,7 @@
       <c r="D388" s="34">
         <v>9.0</v>
       </c>
-      <c r="E388" s="45"/>
+      <c r="E388" s="44"/>
       <c r="F388" s="36"/>
     </row>
     <row r="389">
@@ -12174,7 +12074,7 @@
     </row>
     <row r="390">
       <c r="A390" s="32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B390" s="39"/>
       <c r="C390" s="40"/>
@@ -12184,7 +12084,7 @@
     </row>
     <row r="391">
       <c r="A391" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B391" s="33"/>
       <c r="C391" s="34"/>
@@ -12194,7 +12094,7 @@
     </row>
     <row r="392">
       <c r="A392" s="35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B392" s="33"/>
       <c r="C392" s="34"/>
@@ -12204,7 +12104,7 @@
     </row>
     <row r="393">
       <c r="A393" s="35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B393" s="39"/>
       <c r="C393" s="40"/>
@@ -12216,7 +12116,7 @@
       <c r="A394" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B394" s="42"/>
+      <c r="B394" s="41"/>
       <c r="C394" s="40"/>
       <c r="D394" s="40"/>
       <c r="E394" s="40"/>
@@ -12237,7 +12137,7 @@
     </row>
     <row r="396">
       <c r="A396" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B396" s="39"/>
       <c r="C396" s="40"/>
@@ -12257,7 +12157,7 @@
     </row>
     <row r="398">
       <c r="A398" s="35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B398" s="39"/>
       <c r="C398" s="40"/>
@@ -12267,7 +12167,7 @@
     </row>
     <row r="399">
       <c r="A399" s="35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B399" s="39"/>
       <c r="C399" s="40"/>
@@ -12277,9 +12177,9 @@
     </row>
     <row r="400">
       <c r="A400" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B400" s="42"/>
+        <v>66</v>
+      </c>
+      <c r="B400" s="41"/>
       <c r="C400" s="40"/>
       <c r="D400" s="40"/>
       <c r="E400" s="36"/>
@@ -12316,7 +12216,7 @@
     </row>
     <row r="403">
       <c r="A403" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B403" s="33">
         <v>8.0</v>
@@ -12384,9 +12284,9 @@
     </row>
     <row r="407">
       <c r="A407" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B407" s="44">
+        <v>68</v>
+      </c>
+      <c r="B407" s="43">
         <v>90.0</v>
       </c>
       <c r="C407" s="34">
@@ -12401,9 +12301,7 @@
       <c r="F407" s="36"/>
     </row>
     <row r="408">
-      <c r="A408" s="28" t="s">
-        <v>87</v>
-      </c>
+      <c r="A408" s="28"/>
       <c r="B408" s="12"/>
       <c r="C408" s="12"/>
       <c r="D408" s="12"/>
@@ -12425,7 +12323,7 @@
     </row>
     <row r="410">
       <c r="A410" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B410" s="33">
         <v>20.0</v>
@@ -12455,7 +12353,7 @@
     </row>
     <row r="412">
       <c r="A412" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B412" s="33">
         <v>40.0</v>
@@ -12513,7 +12411,7 @@
     </row>
     <row r="415">
       <c r="A415" s="32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B415" s="37">
         <v>9.0</v>
@@ -12524,7 +12422,7 @@
       <c r="D415" s="34">
         <v>10.0</v>
       </c>
-      <c r="E415" s="45"/>
+      <c r="E415" s="44"/>
       <c r="F415" s="36"/>
     </row>
     <row r="416">
@@ -12542,7 +12440,7 @@
     </row>
     <row r="417">
       <c r="A417" s="32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B417" s="39"/>
       <c r="C417" s="40"/>
@@ -12552,7 +12450,7 @@
     </row>
     <row r="418">
       <c r="A418" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B418" s="33">
         <v>165.0</v>
@@ -12572,13 +12470,13 @@
     </row>
     <row r="419">
       <c r="A419" s="35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B419" s="33">
         <v>78.0</v>
       </c>
       <c r="C419" s="34" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D419" s="34">
         <v>6.0</v>
@@ -12592,7 +12490,7 @@
     </row>
     <row r="420">
       <c r="A420" s="35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B420" s="33">
         <v>130.0</v>
@@ -12612,7 +12510,7 @@
       <c r="A421" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B421" s="42"/>
+      <c r="B421" s="41"/>
       <c r="C421" s="40"/>
       <c r="D421" s="40"/>
       <c r="E421" s="40"/>
@@ -12633,7 +12531,7 @@
     </row>
     <row r="423">
       <c r="A423" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B423" s="33">
         <v>18.0</v>
@@ -12671,7 +12569,7 @@
     </row>
     <row r="425">
       <c r="A425" s="35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B425" s="33">
         <v>45.0</v>
@@ -12689,7 +12587,7 @@
     </row>
     <row r="426">
       <c r="A426" s="35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B426" s="33">
         <v>55.0</v>
@@ -12707,7 +12605,7 @@
     </row>
     <row r="427">
       <c r="A427" s="35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B427" s="37">
         <v>40.0</v>
@@ -12752,7 +12650,7 @@
     </row>
     <row r="430">
       <c r="A430" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B430" s="33">
         <v>9.0</v>
@@ -12820,7 +12718,7 @@
     </row>
     <row r="434">
       <c r="A434" s="32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B434" s="39"/>
       <c r="C434" s="40"/>
@@ -12829,9 +12727,7 @@
       <c r="F434" s="36"/>
     </row>
     <row r="435">
-      <c r="A435" s="28" t="s">
-        <v>87</v>
-      </c>
+      <c r="A435" s="28"/>
       <c r="B435" s="12"/>
       <c r="C435" s="12"/>
       <c r="D435" s="12"/>
@@ -12853,7 +12749,7 @@
     </row>
     <row r="437">
       <c r="A437" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B437" s="33">
         <v>20.0</v>
@@ -12891,7 +12787,7 @@
     </row>
     <row r="439">
       <c r="A439" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B439" s="33">
         <v>40.0</v>
@@ -12949,7 +12845,7 @@
     </row>
     <row r="442">
       <c r="A442" s="32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B442" s="37">
         <v>12.0</v>
@@ -12960,7 +12856,7 @@
       <c r="D442" s="34">
         <v>8.0</v>
       </c>
-      <c r="E442" s="45"/>
+      <c r="E442" s="44"/>
       <c r="F442" s="36"/>
     </row>
     <row r="443">
@@ -12978,7 +12874,7 @@
     </row>
     <row r="444">
       <c r="A444" s="32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B444" s="39"/>
       <c r="C444" s="40"/>
@@ -12988,7 +12884,7 @@
     </row>
     <row r="445">
       <c r="A445" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B445" s="33">
         <v>165.0</v>
@@ -13008,16 +12904,16 @@
     </row>
     <row r="446">
       <c r="A446" s="35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B446" s="33">
         <v>80.0</v>
       </c>
       <c r="C446" s="34" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D446" s="34" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E446" s="34">
         <v>6.0</v>
@@ -13028,7 +12924,7 @@
     </row>
     <row r="447">
       <c r="A447" s="35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B447" s="33">
         <v>140.0</v>
@@ -13077,7 +12973,7 @@
     </row>
     <row r="450">
       <c r="A450" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B450" s="33">
         <v>18.0</v>
@@ -13115,12 +13011,12 @@
     </row>
     <row r="452">
       <c r="A452" s="35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B452" s="33">
         <v>55.0</v>
       </c>
-      <c r="C452" s="47">
+      <c r="C452" s="46">
         <v>2.0902777777777777</v>
       </c>
       <c r="D452" s="34">
@@ -13133,7 +13029,7 @@
     </row>
     <row r="453">
       <c r="A453" s="35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B453" s="33">
         <v>55.0</v>
@@ -13149,9 +13045,9 @@
     </row>
     <row r="454">
       <c r="A454" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B454" s="42"/>
+        <v>66</v>
+      </c>
+      <c r="B454" s="41"/>
       <c r="C454" s="40"/>
       <c r="D454" s="40"/>
       <c r="E454" s="36"/>
@@ -13182,7 +13078,7 @@
     </row>
     <row r="457">
       <c r="A457" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B457" s="39"/>
       <c r="C457" s="40"/>
@@ -13222,18 +13118,16 @@
     </row>
     <row r="461">
       <c r="A461" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B461" s="46"/>
+        <v>68</v>
+      </c>
+      <c r="B461" s="45"/>
       <c r="C461" s="40"/>
       <c r="D461" s="40"/>
       <c r="E461" s="38"/>
       <c r="F461" s="36"/>
     </row>
     <row r="462">
-      <c r="A462" s="28" t="s">
-        <v>87</v>
-      </c>
+      <c r="A462" s="28"/>
       <c r="B462" s="12"/>
       <c r="C462" s="12"/>
       <c r="D462" s="12"/>
@@ -13255,10 +13149,10 @@
     </row>
     <row r="464">
       <c r="A464" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B464" s="33" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C464" s="34">
         <v>6.0</v>
@@ -13293,7 +13187,7 @@
     </row>
     <row r="466">
       <c r="A466" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B466" s="33">
         <v>42.5</v>
@@ -13341,7 +13235,7 @@
     </row>
     <row r="469">
       <c r="A469" s="32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B469" s="37">
         <v>12.0</v>
@@ -13350,7 +13244,7 @@
         <v>8.0</v>
       </c>
       <c r="D469" s="40"/>
-      <c r="E469" s="45"/>
+      <c r="E469" s="44"/>
       <c r="F469" s="36"/>
     </row>
     <row r="470">
@@ -13368,7 +13262,7 @@
     </row>
     <row r="471">
       <c r="A471" s="32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B471" s="39"/>
       <c r="C471" s="40"/>
@@ -13378,15 +13272,15 @@
     </row>
     <row r="472">
       <c r="A472" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B472" s="33">
         <v>170.0</v>
       </c>
-      <c r="C472" s="47">
+      <c r="C472" s="46">
         <v>6.673611111111111</v>
       </c>
-      <c r="D472" s="47">
+      <c r="D472" s="46">
         <v>6.881944444444445</v>
       </c>
       <c r="E472" s="34">
@@ -13398,7 +13292,7 @@
     </row>
     <row r="473">
       <c r="A473" s="35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B473" s="33">
         <v>160.0</v>
@@ -13418,7 +13312,7 @@
     </row>
     <row r="474">
       <c r="A474" s="35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B474" s="33">
         <v>150.0</v>
@@ -13467,7 +13361,7 @@
     </row>
     <row r="477">
       <c r="A477" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B477" s="33">
         <v>18.0</v>
@@ -13505,7 +13399,7 @@
     </row>
     <row r="479">
       <c r="A479" s="35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B479" s="33">
         <v>60.0</v>
@@ -13523,7 +13417,7 @@
     </row>
     <row r="480">
       <c r="A480" s="35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B480" s="33">
         <v>55.0</v>
@@ -13541,7 +13435,7 @@
     </row>
     <row r="481">
       <c r="A481" s="35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B481" s="37">
         <v>30.0</v>
@@ -13584,7 +13478,7 @@
     </row>
     <row r="484">
       <c r="A484" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B484" s="33">
         <v>9.0</v>
@@ -13650,7 +13544,7 @@
     </row>
     <row r="488">
       <c r="A488" s="32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B488" s="39"/>
       <c r="C488" s="40"/>
@@ -13659,9 +13553,7 @@
       <c r="F488" s="36"/>
     </row>
     <row r="489">
-      <c r="A489" s="28" t="s">
-        <v>87</v>
-      </c>
+      <c r="A489" s="28"/>
       <c r="B489" s="12"/>
       <c r="C489" s="12"/>
       <c r="D489" s="12"/>
@@ -13683,7 +13575,7 @@
     </row>
     <row r="491">
       <c r="A491" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B491" s="33">
         <v>22.0</v>
@@ -13713,7 +13605,7 @@
     </row>
     <row r="493">
       <c r="A493" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B493" s="39"/>
       <c r="C493" s="40"/>
@@ -13739,7 +13631,7 @@
         <v>17.5</v>
       </c>
       <c r="C495" s="34" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D495" s="34">
         <v>8.0</v>
@@ -13751,7 +13643,7 @@
     </row>
     <row r="496">
       <c r="A496" s="32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B496" s="37">
         <v>17.5</v>
@@ -13762,7 +13654,7 @@
       <c r="D496" s="34">
         <v>10.0</v>
       </c>
-      <c r="E496" s="45"/>
+      <c r="E496" s="44"/>
       <c r="F496" s="36"/>
     </row>
     <row r="497">
@@ -13777,7 +13669,7 @@
     </row>
     <row r="498">
       <c r="A498" s="32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B498" s="33"/>
       <c r="C498" s="40"/>
@@ -13787,7 +13679,7 @@
     </row>
     <row r="499">
       <c r="A499" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B499" s="39"/>
       <c r="C499" s="40"/>
@@ -13797,7 +13689,7 @@
     </row>
     <row r="500">
       <c r="A500" s="35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B500" s="39"/>
       <c r="C500" s="40"/>
@@ -13807,7 +13699,7 @@
     </row>
     <row r="501">
       <c r="A501" s="35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B501" s="39"/>
       <c r="C501" s="40"/>
@@ -13819,7 +13711,7 @@
       <c r="A502" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B502" s="42"/>
+      <c r="B502" s="41"/>
       <c r="C502" s="40"/>
       <c r="D502" s="40"/>
       <c r="E502" s="40"/>
@@ -13837,7 +13729,7 @@
     </row>
     <row r="504">
       <c r="A504" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B504" s="39"/>
       <c r="C504" s="40"/>
@@ -13857,7 +13749,7 @@
     </row>
     <row r="506">
       <c r="A506" s="35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B506" s="39"/>
       <c r="C506" s="40"/>
@@ -13867,7 +13759,7 @@
     </row>
     <row r="507">
       <c r="A507" s="35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B507" s="39"/>
       <c r="C507" s="40"/>
@@ -13877,9 +13769,9 @@
     </row>
     <row r="508">
       <c r="A508" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B508" s="42"/>
+        <v>66</v>
+      </c>
+      <c r="B508" s="41"/>
       <c r="C508" s="40"/>
       <c r="D508" s="40"/>
       <c r="E508" s="36"/>
@@ -13907,7 +13799,7 @@
     </row>
     <row r="511">
       <c r="A511" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B511" s="39"/>
       <c r="C511" s="40"/>
@@ -13947,7 +13839,7 @@
     </row>
     <row r="515">
       <c r="A515" s="32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B515" s="39"/>
       <c r="C515" s="40"/>
@@ -13956,9 +13848,7 @@
       <c r="F515" s="36"/>
     </row>
     <row r="516">
-      <c r="A516" s="28" t="s">
-        <v>87</v>
-      </c>
+      <c r="A516" s="28"/>
       <c r="B516" s="12"/>
       <c r="C516" s="12"/>
       <c r="D516" s="12"/>
@@ -13977,7 +13867,7 @@
     </row>
     <row r="518">
       <c r="A518" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B518" s="33"/>
       <c r="C518" s="34"/>
@@ -13997,7 +13887,7 @@
     </row>
     <row r="520">
       <c r="A520" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B520" s="39"/>
       <c r="C520" s="40"/>
@@ -14027,12 +13917,12 @@
     </row>
     <row r="523">
       <c r="A523" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B523" s="42"/>
+        <v>58</v>
+      </c>
+      <c r="B523" s="41"/>
       <c r="C523" s="40"/>
       <c r="D523" s="40"/>
-      <c r="E523" s="45"/>
+      <c r="E523" s="44"/>
       <c r="F523" s="36"/>
     </row>
     <row r="524">
@@ -14047,7 +13937,7 @@
     </row>
     <row r="525">
       <c r="A525" s="32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B525" s="39"/>
       <c r="C525" s="40"/>
@@ -14057,7 +13947,7 @@
     </row>
     <row r="526">
       <c r="A526" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B526" s="39"/>
       <c r="C526" s="40"/>
@@ -14067,7 +13957,7 @@
     </row>
     <row r="527">
       <c r="A527" s="35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B527" s="39"/>
       <c r="C527" s="40"/>
@@ -14077,7 +13967,7 @@
     </row>
     <row r="528">
       <c r="A528" s="35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B528" s="39"/>
       <c r="C528" s="40"/>
@@ -14089,7 +13979,7 @@
       <c r="A529" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B529" s="42"/>
+      <c r="B529" s="41"/>
       <c r="C529" s="40"/>
       <c r="D529" s="40"/>
       <c r="E529" s="40"/>
@@ -14107,7 +13997,7 @@
     </row>
     <row r="531">
       <c r="A531" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B531" s="39"/>
       <c r="C531" s="40"/>
@@ -14127,7 +14017,7 @@
     </row>
     <row r="533">
       <c r="A533" s="35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B533" s="39"/>
       <c r="C533" s="40"/>
@@ -14137,7 +14027,7 @@
     </row>
     <row r="534">
       <c r="A534" s="35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B534" s="39"/>
       <c r="C534" s="40"/>
@@ -14147,9 +14037,9 @@
     </row>
     <row r="535">
       <c r="A535" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B535" s="42"/>
+        <v>66</v>
+      </c>
+      <c r="B535" s="41"/>
       <c r="C535" s="40"/>
       <c r="D535" s="40"/>
       <c r="E535" s="36"/>
@@ -14177,7 +14067,7 @@
     </row>
     <row r="538">
       <c r="A538" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B538" s="39"/>
       <c r="C538" s="40"/>
@@ -14217,7 +14107,7 @@
     </row>
     <row r="542">
       <c r="A542" s="32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B542" s="39"/>
       <c r="C542" s="40"/>
@@ -14226,9 +14116,7 @@
       <c r="F542" s="36"/>
     </row>
     <row r="543">
-      <c r="A543" s="28" t="s">
-        <v>87</v>
-      </c>
+      <c r="A543" s="28"/>
       <c r="B543" s="12"/>
       <c r="C543" s="12"/>
       <c r="D543" s="12"/>
@@ -14247,7 +14135,7 @@
     </row>
     <row r="545">
       <c r="A545" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B545" s="33"/>
       <c r="C545" s="34"/>
@@ -14267,7 +14155,7 @@
     </row>
     <row r="547">
       <c r="A547" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B547" s="39"/>
       <c r="C547" s="40"/>
@@ -14297,12 +14185,12 @@
     </row>
     <row r="550">
       <c r="A550" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B550" s="42"/>
+        <v>58</v>
+      </c>
+      <c r="B550" s="41"/>
       <c r="C550" s="40"/>
       <c r="D550" s="40"/>
-      <c r="E550" s="45"/>
+      <c r="E550" s="44"/>
       <c r="F550" s="36"/>
     </row>
     <row r="551">
@@ -14317,7 +14205,7 @@
     </row>
     <row r="552">
       <c r="A552" s="32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B552" s="39"/>
       <c r="C552" s="40"/>
@@ -14327,7 +14215,7 @@
     </row>
     <row r="553">
       <c r="A553" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B553" s="39"/>
       <c r="C553" s="40"/>
@@ -14337,7 +14225,7 @@
     </row>
     <row r="554">
       <c r="A554" s="35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B554" s="39"/>
       <c r="C554" s="40"/>
@@ -14347,7 +14235,7 @@
     </row>
     <row r="555">
       <c r="A555" s="35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B555" s="39"/>
       <c r="C555" s="40"/>
@@ -14359,7 +14247,7 @@
       <c r="A556" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B556" s="42"/>
+      <c r="B556" s="41"/>
       <c r="C556" s="40"/>
       <c r="D556" s="40"/>
       <c r="E556" s="40"/>
@@ -14377,7 +14265,7 @@
     </row>
     <row r="558">
       <c r="A558" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B558" s="39"/>
       <c r="C558" s="40"/>
@@ -14397,7 +14285,7 @@
     </row>
     <row r="560">
       <c r="A560" s="35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B560" s="39"/>
       <c r="C560" s="40"/>
@@ -14407,7 +14295,7 @@
     </row>
     <row r="561">
       <c r="A561" s="35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B561" s="39"/>
       <c r="C561" s="40"/>
@@ -14417,9 +14305,9 @@
     </row>
     <row r="562">
       <c r="A562" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B562" s="42"/>
+        <v>66</v>
+      </c>
+      <c r="B562" s="41"/>
       <c r="C562" s="40"/>
       <c r="D562" s="40"/>
       <c r="E562" s="36"/>
@@ -14447,7 +14335,7 @@
     </row>
     <row r="565">
       <c r="A565" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B565" s="39"/>
       <c r="C565" s="40"/>
@@ -14487,7 +14375,7 @@
     </row>
     <row r="569">
       <c r="A569" s="32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B569" s="39"/>
       <c r="C569" s="40"/>
@@ -14497,17 +14385,49 @@
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="A266:F266"/>
-    <mergeCell ref="A273:F273"/>
-    <mergeCell ref="A274:F274"/>
-    <mergeCell ref="A281:F281"/>
-    <mergeCell ref="A287:F287"/>
-    <mergeCell ref="A293:F293"/>
-    <mergeCell ref="A300:F300"/>
-    <mergeCell ref="A301:F301"/>
-    <mergeCell ref="A308:F308"/>
-    <mergeCell ref="A314:F314"/>
-    <mergeCell ref="A320:F320"/>
+    <mergeCell ref="A490:F490"/>
+    <mergeCell ref="A497:F497"/>
+    <mergeCell ref="A503:F503"/>
+    <mergeCell ref="A509:F509"/>
+    <mergeCell ref="A516:F516"/>
+    <mergeCell ref="A517:F517"/>
+    <mergeCell ref="A476:F476"/>
+    <mergeCell ref="A482:F482"/>
+    <mergeCell ref="A489:F489"/>
+    <mergeCell ref="A530:F530"/>
+    <mergeCell ref="A536:F536"/>
+    <mergeCell ref="A543:F543"/>
+    <mergeCell ref="A544:F544"/>
+    <mergeCell ref="A524:F524"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="A152:F152"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="A166:F166"/>
+    <mergeCell ref="A173:F173"/>
+    <mergeCell ref="A165:F165"/>
+    <mergeCell ref="A138:F138"/>
     <mergeCell ref="A327:F327"/>
     <mergeCell ref="A328:F328"/>
     <mergeCell ref="A335:F335"/>
@@ -14536,72 +14456,40 @@
     <mergeCell ref="A462:F462"/>
     <mergeCell ref="A463:F463"/>
     <mergeCell ref="A470:F470"/>
-    <mergeCell ref="A476:F476"/>
-    <mergeCell ref="A482:F482"/>
-    <mergeCell ref="A489:F489"/>
-    <mergeCell ref="A530:F530"/>
-    <mergeCell ref="A536:F536"/>
-    <mergeCell ref="A543:F543"/>
-    <mergeCell ref="A544:F544"/>
     <mergeCell ref="A551:F551"/>
     <mergeCell ref="A557:F557"/>
     <mergeCell ref="A563:F563"/>
-    <mergeCell ref="A490:F490"/>
-    <mergeCell ref="A497:F497"/>
-    <mergeCell ref="A503:F503"/>
-    <mergeCell ref="A509:F509"/>
-    <mergeCell ref="A516:F516"/>
-    <mergeCell ref="A517:F517"/>
-    <mergeCell ref="A524:F524"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="A146:F146"/>
-    <mergeCell ref="A152:F152"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="A165:F165"/>
-    <mergeCell ref="A166:F166"/>
-    <mergeCell ref="A173:F173"/>
     <mergeCell ref="A179:F179"/>
     <mergeCell ref="A185:F185"/>
     <mergeCell ref="A192:F192"/>
-    <mergeCell ref="A193:F193"/>
+    <mergeCell ref="A246:F246"/>
+    <mergeCell ref="A219:F219"/>
+    <mergeCell ref="A287:F287"/>
+    <mergeCell ref="A293:F293"/>
+    <mergeCell ref="A300:F300"/>
+    <mergeCell ref="A301:F301"/>
+    <mergeCell ref="A308:F308"/>
+    <mergeCell ref="A314:F314"/>
+    <mergeCell ref="A320:F320"/>
+    <mergeCell ref="A220:F220"/>
+    <mergeCell ref="A227:F227"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A266:F266"/>
+    <mergeCell ref="A273:F273"/>
+    <mergeCell ref="A274:F274"/>
+    <mergeCell ref="A281:F281"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A200:F200"/>
     <mergeCell ref="A206:F206"/>
-    <mergeCell ref="A212:F212"/>
-    <mergeCell ref="A219:F219"/>
-    <mergeCell ref="A220:F220"/>
-    <mergeCell ref="A227:F227"/>
     <mergeCell ref="A233:F233"/>
     <mergeCell ref="A239:F239"/>
-    <mergeCell ref="A246:F246"/>
-    <mergeCell ref="A247:F247"/>
     <mergeCell ref="A254:F254"/>
     <mergeCell ref="A260:F260"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A193:F193"/>
+    <mergeCell ref="A212:F212"/>
+    <mergeCell ref="A247:F247"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -14626,128 +14514,128 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="49">
+      <c r="A1" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="48">
         <f t="shared" ref="B1:G1" si="1">MAX(B6:B20)</f>
         <v>22</v>
       </c>
-      <c r="C1" s="49">
+      <c r="C1" s="48">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D1" s="49">
+      <c r="D1" s="48">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E1" s="49">
+      <c r="E1" s="48">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F1" s="49">
+      <c r="F1" s="48">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G1" s="49">
+      <c r="G1" s="48">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="48">
+      <c r="A2" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="47">
         <v>42.0</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="47">
         <v>42.0</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="47">
         <v>89.0</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="47">
         <v>19.0</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="47">
         <v>48.0</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="47">
         <v>24.0</v>
       </c>
-      <c r="K2" s="50"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3">
-      <c r="A3" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="49">
+      <c r="A3" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="48">
         <f t="shared" ref="B3:G3" si="2">ROUND(B1*1/0.86, 0)</f>
         <v>26</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="48">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="48">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="48">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="48">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="48">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="51">
+      <c r="A4" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="50">
         <f t="shared" ref="B4:G4" si="3">B3/B2</f>
         <v>0.619047619</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="50">
         <f t="shared" si="3"/>
         <v>0.4047619048</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="50">
         <f t="shared" si="3"/>
         <v>0.6516853933</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="50">
         <f t="shared" si="3"/>
         <v>0.4210526316</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="50">
         <f t="shared" si="3"/>
         <v>0.3541666667</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="50">
         <f t="shared" si="3"/>
         <v>0.5833333333</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="48" t="s">
-        <v>99</v>
+      <c r="A5" s="47" t="s">
+        <v>90</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>10</v>
@@ -14756,586 +14644,586 @@
         <v>11</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="48">
+      <c r="A6" s="47">
         <v>1.0</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="51">
         <f>OFFSET(RepRec!$B$5,(ROW(B1)-1)*27,0)</f>
         <v>14</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="51">
         <f>OFFSET(RepRec!$B$6,(ROW(C1)-1)*27,0)</f>
         <v>6</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="51">
         <f>OFFSET(RepRec!$B$7,(ROW(D1)-1)*27,0)</f>
         <v>35</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="51">
         <f>OFFSET(RepRec!$B$8,(ROW(E1)-1)*27,0)</f>
         <v>4</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="51">
         <f>OFFSET(RepRec!$B$9,(ROW(F1)-1)*27,0)</f>
         <v>10</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="51">
         <f>OFFSET(RepRec!$B$10,(ROW(G1)-1)*27,0)</f>
         <v>8</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="48">
+      <c r="A7" s="47">
         <v>2.0</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="51">
         <f>OFFSET(RepRec!$B$5,(ROW(B2)-1)*27,0)</f>
         <v>18</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="51">
         <f>OFFSET(RepRec!$B$6,(ROW(C2)-1)*27,0)</f>
         <v>9</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="51">
         <f>OFFSET(RepRec!$B$7,(ROW(D2)-1)*27,0)</f>
         <v>40</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="51">
         <f>OFFSET(RepRec!$B$8,(ROW(E2)-1)*27,0)</f>
         <v>3.5</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="51">
         <f>OFFSET(RepRec!$B$9,(ROW(F2)-1)*27,0)</f>
         <v>12.5</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="51">
         <f>OFFSET(RepRec!$B$10,(ROW(G2)-1)*27,0)</f>
         <v>8</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="48">
+      <c r="A8" s="47">
         <v>3.0</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="51">
         <f>OFFSET(RepRec!$B$5,(ROW(B3)-1)*27,0)</f>
         <v>20</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="51">
         <f>OFFSET(RepRec!$B$6,(ROW(C3)-1)*27,0)</f>
         <v>9.5</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="51">
         <f>OFFSET(RepRec!$B$7,(ROW(D3)-1)*27,0)</f>
         <v>45</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="51">
         <f>OFFSET(RepRec!$B$8,(ROW(E3)-1)*27,0)</f>
         <v>3.5</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="51">
         <f>OFFSET(RepRec!$B$9,(ROW(F3)-1)*27,0)</f>
         <v>12.5</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="51">
         <f>OFFSET(RepRec!$B$10,(ROW(G3)-1)*27,0)</f>
         <v>9</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="48">
+      <c r="A9" s="47">
         <v>4.0</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="51">
         <f>OFFSET(RepRec!$B$5,(ROW(B4)-1)*27,0)</f>
         <v>22</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="51">
         <f>OFFSET(RepRec!$B$6,(ROW(C4)-1)*27,0)</f>
         <v>10.3</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="51">
         <f>OFFSET(RepRec!$B$7,(ROW(D4)-1)*27,0)</f>
         <v>50</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="51">
         <f>OFFSET(RepRec!$B$8,(ROW(E4)-1)*27,0)</f>
         <v>4</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="51">
         <f>OFFSET(RepRec!$B$9,(ROW(F4)-1)*27,0)</f>
         <v>15</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="51">
         <f>OFFSET(RepRec!$B$10,(ROW(G4)-1)*27,0)</f>
         <v>9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="48">
+      <c r="A10" s="47">
         <v>5.0</v>
       </c>
-      <c r="B10" s="41" t="str">
+      <c r="B10" s="51" t="str">
         <f>OFFSET(RepRec!$B$5,(ROW(B5)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C10" s="41" t="str">
+      <c r="C10" s="51" t="str">
         <f>OFFSET(RepRec!$B$6,(ROW(C5)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D10" s="41" t="str">
+      <c r="D10" s="51" t="str">
         <f>OFFSET(RepRec!$B$7,(ROW(D5)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E10" s="41" t="str">
+      <c r="E10" s="51" t="str">
         <f>OFFSET(RepRec!$B$8,(ROW(E5)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F10" s="41" t="str">
+      <c r="F10" s="51" t="str">
         <f>OFFSET(RepRec!$B$9,(ROW(F5)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="G10" s="41" t="str">
+      <c r="G10" s="51" t="str">
         <f>OFFSET(RepRec!$B$10,(ROW(G5)-1)*27,0)</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="48">
+      <c r="A11" s="47">
         <v>6.0</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="51">
         <f>OFFSET(RepRec!$B$5,(ROW(B6)-1)*27,0)</f>
         <v>20</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="51">
         <f>OFFSET(RepRec!$B$6,(ROW(C6)-1)*27,0)</f>
         <v>10.5</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="51">
         <f>OFFSET(RepRec!$B$7,(ROW(D6)-1)*27,0)</f>
         <v>40</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="51">
         <f>OFFSET(RepRec!$B$8,(ROW(E6)-1)*27,0)</f>
         <v>4.5</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="51">
         <f>OFFSET(RepRec!$B$9,(ROW(F6)-1)*27,0)</f>
         <v>15</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="51">
         <f>OFFSET(RepRec!$B$10,(ROW(G6)-1)*27,0)</f>
         <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="48">
+      <c r="A12" s="47">
         <v>7.0</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="51">
         <f>OFFSET(RepRec!$B$5,(ROW(B7)-1)*27,0)</f>
         <v>22</v>
       </c>
-      <c r="C12" s="41" t="str">
+      <c r="C12" s="51" t="str">
         <f>OFFSET(RepRec!$B$6,(ROW(C7)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="51">
         <f>OFFSET(RepRec!$B$7,(ROW(D7)-1)*27,0)</f>
         <v>35</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="51">
         <f>OFFSET(RepRec!$B$8,(ROW(E7)-1)*27,0)</f>
         <v>5</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="51">
         <f>OFFSET(RepRec!$B$9,(ROW(F7)-1)*27,0)</f>
         <v>15</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="51">
         <f>OFFSET(RepRec!$B$10,(ROW(G7)-1)*27,0)</f>
         <v>10</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="48">
-        <v>8.0</v>
-      </c>
-      <c r="B13" s="41" t="str">
+      <c r="A13" s="47">
+        <v>8.0</v>
+      </c>
+      <c r="B13" s="51" t="str">
         <f>OFFSET(RepRec!$B$5,(ROW(B8)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="51">
         <f>OFFSET(RepRec!$B$6,(ROW(C8)-1)*27,0)</f>
         <v>13</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="51">
         <f>OFFSET(RepRec!$B$7,(ROW(D8)-1)*27,0)</f>
         <v>35</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="51">
         <f>OFFSET(RepRec!$B$8,(ROW(E8)-1)*27,0)</f>
         <v>5</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="51">
         <f>OFFSET(RepRec!$B$9,(ROW(F8)-1)*27,0)</f>
         <v>15</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="51">
         <f>OFFSET(RepRec!$B$10,(ROW(G8)-1)*27,0)</f>
         <v>10</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="48">
+      <c r="A14" s="47">
         <v>9.0</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="51">
         <f>OFFSET(RepRec!$B$5,(ROW(B9)-1)*27,0)</f>
         <v>20</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="51">
         <f>OFFSET(RepRec!$B$6,(ROW(C9)-1)*27,0)</f>
         <v>13.5</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="51">
         <f>OFFSET(RepRec!$B$7,(ROW(D9)-1)*27,0)</f>
         <v>36.5</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="51">
         <f>OFFSET(RepRec!$B$8,(ROW(E9)-1)*27,0)</f>
         <v>4.5</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="51">
         <f>OFFSET(RepRec!$B$9,(ROW(F9)-1)*27,0)</f>
         <v>15</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="51">
         <f>OFFSET(RepRec!$B$10,(ROW(G9)-1)*27,0)</f>
         <v>10</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="48">
-        <v>10.0</v>
-      </c>
-      <c r="B15" s="41">
+      <c r="A15" s="47">
+        <v>10.0</v>
+      </c>
+      <c r="B15" s="51">
         <f>OFFSET(RepRec!$B$5,(ROW(B10)-1)*27,0)</f>
         <v>20</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="51">
         <f>OFFSET(RepRec!$B$6,(ROW(C10)-1)*27,0)</f>
         <v>14.5</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="51">
         <f>OFFSET(RepRec!$B$7,(ROW(D10)-1)*27,0)</f>
         <v>40</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="51">
         <f>OFFSET(RepRec!$B$8,(ROW(E10)-1)*27,0)</f>
         <v>4.5</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="51">
         <f>OFFSET(RepRec!$B$9,(ROW(F10)-1)*27,0)</f>
         <v>15</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="51">
         <f>OFFSET(RepRec!$B$10,(ROW(G10)-1)*27,0)</f>
         <v>12</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="48">
+      <c r="A16" s="47">
         <v>11.0</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="51">
         <f>OFFSET(RepRec!$B$5,(ROW(B11)-1)*27,0)</f>
         <v>20</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="51">
         <f>OFFSET(RepRec!$B$6,(ROW(C11)-1)*27,0)</f>
         <v>14.5</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="51">
         <f>OFFSET(RepRec!$B$7,(ROW(D11)-1)*27,0)</f>
         <v>45</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="51">
         <f>OFFSET(RepRec!$B$8,(ROW(E11)-1)*27,0)</f>
         <v>7</v>
       </c>
-      <c r="F16" s="41" t="str">
+      <c r="F16" s="51" t="str">
         <f>OFFSET(RepRec!$B$9,(ROW(F11)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="51">
         <f>OFFSET(RepRec!$B$10,(ROW(G11)-1)*27,0)</f>
         <v>12</v>
       </c>
       <c r="J16" s="32"/>
     </row>
     <row r="17">
-      <c r="A17" s="48">
+      <c r="A17" s="47">
         <v>12.0</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="51">
         <f>OFFSET(RepRec!$B$5,(ROW(B12)-1)*27,0)</f>
         <v>22</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="51">
         <f>OFFSET(RepRec!$B$6,(ROW(C12)-1)*27,0)</f>
         <v>15</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="51">
         <f>OFFSET(RepRec!$B$7,(ROW(D12)-1)*27,0)</f>
         <v>45</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="51">
         <f>OFFSET(RepRec!$B$8,(ROW(E12)-1)*27,0)</f>
         <v>6</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="51">
         <f>OFFSET(RepRec!$B$9,(ROW(F12)-1)*27,0)</f>
         <v>15</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="51">
         <f>OFFSET(RepRec!$B$10,(ROW(G12)-1)*27,0)</f>
         <v>12</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="48">
+      <c r="A18" s="47">
         <v>13.0</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="51">
         <f>OFFSET(RepRec!$B$5,(ROW(B13)-1)*27,0)</f>
         <v>22</v>
       </c>
-      <c r="C18" s="41" t="str">
+      <c r="C18" s="51" t="str">
         <f>OFFSET(RepRec!$B$6,(ROW(C13)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D18" s="41" t="str">
+      <c r="D18" s="51" t="str">
         <f>OFFSET(RepRec!$B$7,(ROW(D13)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E18" s="41" t="str">
+      <c r="E18" s="51" t="str">
         <f>OFFSET(RepRec!$B$8,(ROW(E13)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F18" s="41" t="str">
+      <c r="F18" s="51" t="str">
         <f>OFFSET(RepRec!$B$9,(ROW(F13)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="51">
         <f>OFFSET(RepRec!$B$10,(ROW(G13)-1)*27,0)</f>
         <v>12</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="48">
+      <c r="A19" s="47">
         <v>14.0</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="51">
         <f>OFFSET(RepRec!$B$5,(ROW(B14)-1)*27,0)</f>
         <v>20</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="51">
         <f>OFFSET(RepRec!$B$6,(ROW(C14)-1)*27,0)</f>
         <v>7.5</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="51">
         <f>OFFSET(RepRec!$B$7,(ROW(D14)-1)*27,0)</f>
         <v>40</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="51">
         <f>OFFSET(RepRec!$B$8,(ROW(E14)-1)*27,0)</f>
         <v>5.5</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="51">
         <f>OFFSET(RepRec!$B$9,(ROW(F14)-1)*27,0)</f>
         <v>15</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="51">
         <f>OFFSET(RepRec!$B$10,(ROW(G14)-1)*27,0)</f>
         <v>9</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="48">
+      <c r="A20" s="47">
         <v>15.0</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="51">
         <f>OFFSET(RepRec!$B$5,(ROW(B15)-1)*27,0)</f>
         <v>20</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="51">
         <f>OFFSET(RepRec!$B$6,(ROW(C15)-1)*27,0)</f>
         <v>12</v>
       </c>
-      <c r="D20" s="41" t="str">
+      <c r="D20" s="51" t="str">
         <f>OFFSET(RepRec!$B$7,(ROW(D15)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="51">
         <f>OFFSET(RepRec!$B$8,(ROW(E15)-1)*27,0)</f>
         <v>5.5</v>
       </c>
-      <c r="F20" s="41" t="str">
+      <c r="F20" s="51" t="str">
         <f>OFFSET(RepRec!$B$9,(ROW(F15)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="51">
         <f>OFFSET(RepRec!$B$10,(ROW(G15)-1)*27,0)</f>
         <v>9</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="48">
+      <c r="A21" s="47">
         <v>16.0</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="51">
         <f>OFFSET(RepRec!$B$5,(ROW(B16)-1)*27,0)</f>
         <v>20</v>
       </c>
-      <c r="C21" s="41" t="str">
+      <c r="C21" s="51" t="str">
         <f>OFFSET(RepRec!$B$6,(ROW(C16)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="51">
         <f>OFFSET(RepRec!$B$7,(ROW(D16)-1)*27,0)</f>
         <v>40</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="51">
         <f>OFFSET(RepRec!$B$8,(ROW(E16)-1)*27,0)</f>
         <v>7</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="51">
         <f>OFFSET(RepRec!$B$9,(ROW(F16)-1)*27,0)</f>
         <v>16.5</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="51">
         <f>OFFSET(RepRec!$B$10,(ROW(G16)-1)*27,0)</f>
         <v>9</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="48">
+      <c r="A22" s="47">
         <v>17.0</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="51">
         <f>OFFSET(RepRec!$B$5,(ROW(B17)-1)*27,0)</f>
         <v>20</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="51">
         <f>OFFSET(RepRec!$B$6,(ROW(C17)-1)*27,0)</f>
         <v>10</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="51">
         <f>OFFSET(RepRec!$B$7,(ROW(D17)-1)*27,0)</f>
         <v>40</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="51">
         <f>OFFSET(RepRec!$B$8,(ROW(E17)-1)*27,0)</f>
         <v>8</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="51">
         <f>OFFSET(RepRec!$B$9,(ROW(F17)-1)*27,0)</f>
         <v>17.5</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="51">
         <f>OFFSET(RepRec!$B$10,(ROW(G17)-1)*27,0)</f>
         <v>12</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="48">
+      <c r="A23" s="47">
         <v>18.0</v>
       </c>
-      <c r="B23" s="41" t="str">
+      <c r="B23" s="51" t="str">
         <f>OFFSET(RepRec!$B$5,(ROW(B18)-1)*27,0)</f>
         <v>B:25</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="51">
         <f>OFFSET(RepRec!$B$6,(ROW(C18)-1)*27,0)</f>
         <v>11.25</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="51">
         <f>OFFSET(RepRec!$B$7,(ROW(D18)-1)*27,0)</f>
         <v>42.5</v>
       </c>
-      <c r="E23" s="41" t="str">
+      <c r="E23" s="51" t="str">
         <f>OFFSET(RepRec!$B$8,(ROW(E18)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="51">
         <f>OFFSET(RepRec!$B$9,(ROW(F18)-1)*27,0)</f>
         <v>17.5</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="51">
         <f>OFFSET(RepRec!$B$10,(ROW(G18)-1)*27,0)</f>
         <v>12</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="48">
+      <c r="A24" s="47">
         <v>19.0</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="51">
         <f>OFFSET(RepRec!$B$5,(ROW(B19)-1)*27,0)</f>
         <v>22</v>
       </c>
-      <c r="C24" s="41" t="str">
+      <c r="C24" s="51" t="str">
         <f>OFFSET(RepRec!$B$6,(ROW(C19)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D24" s="41" t="str">
+      <c r="D24" s="51" t="str">
         <f>OFFSET(RepRec!$B$7,(ROW(D19)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E24" s="41" t="str">
+      <c r="E24" s="51" t="str">
         <f>OFFSET(RepRec!$B$8,(ROW(E19)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="51">
         <f>OFFSET(RepRec!$B$9,(ROW(F19)-1)*27,0)</f>
         <v>17.5</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="51">
         <f>OFFSET(RepRec!$B$10,(ROW(G19)-1)*27,0)</f>
         <v>17.5</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="48">
+      <c r="A25" s="47">
         <v>20.0</v>
       </c>
-      <c r="B25" s="41" t="str">
+      <c r="B25" s="51" t="str">
         <f>OFFSET(RepRec!$B$5,(ROW(B20)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C25" s="41" t="str">
+      <c r="C25" s="51" t="str">
         <f>OFFSET(RepRec!$B$6,(ROW(C20)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D25" s="41" t="str">
+      <c r="D25" s="51" t="str">
         <f>OFFSET(RepRec!$B$7,(ROW(D20)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E25" s="41" t="str">
+      <c r="E25" s="51" t="str">
         <f>OFFSET(RepRec!$B$8,(ROW(E20)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F25" s="41" t="str">
+      <c r="F25" s="51" t="str">
         <f>OFFSET(RepRec!$B$9,(ROW(F20)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="G25" s="41" t="str">
+      <c r="G25" s="51" t="str">
         <f>OFFSET(RepRec!$B$10,(ROW(G20)-1)*27,0)</f>
         <v/>
       </c>
@@ -15389,90 +15277,90 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="49">
+      <c r="A1" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="48">
         <f t="shared" ref="B1:E1" si="1">MAX(B6:B20)</f>
         <v>240</v>
       </c>
-      <c r="C1" s="49">
+      <c r="C1" s="48">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="D1" s="49">
+      <c r="D1" s="48">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="E1" s="49">
+      <c r="E1" s="48">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="48">
+      <c r="A2" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="47">
         <v>208.0</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="47">
         <v>130.0</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="47">
         <v>225.0</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="47">
         <v>99.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="49">
+      <c r="A3" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="48">
         <f>ROUND(B1*1/0.86, 0)</f>
         <v>279</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="48">
         <f>ROUND(C1*1/0.94, 0)</f>
         <v>96</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="48">
         <f>ROUND(D1*1/0.86, 0)</f>
         <v>174</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="48">
         <f>ROUND(E1*1/0.81, 0)</f>
         <v>68</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="51">
+      <c r="A4" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="50">
         <f t="shared" ref="B4:E4" si="2">B3/B2</f>
         <v>1.341346154</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="50">
         <f t="shared" si="2"/>
         <v>0.7384615385</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="50">
         <f t="shared" si="2"/>
         <v>0.7733333333</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="50">
         <f t="shared" si="2"/>
         <v>0.6868686869</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5">
-      <c r="A5" s="48" t="s">
-        <v>99</v>
+      <c r="A5" s="47" t="s">
+        <v>90</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>15</v>
@@ -15486,447 +15374,447 @@
       <c r="E5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6">
-      <c r="A6" s="48">
+      <c r="A6" s="47">
         <v>1.0</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="51">
         <f>OFFSET(RepRec!$B$13,(ROW(B1)-1)*27,0)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="51">
         <f>OFFSET(RepRec!$B$14,(ROW(C1)-1)*27,0)</f>
         <v>80</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="51">
         <f>OFFSET(RepRec!$B$15,(ROW(D1)-1)*27,0)</f>
         <v>30</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="51">
         <f>OFFSET(RepRec!$B$16,(ROW(E1)-1)*27,0)</f>
         <v>30</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7">
-      <c r="A7" s="48">
+      <c r="A7" s="47">
         <v>2.0</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="51">
         <f>OFFSET(RepRec!$B$13,(ROW(B2)-1)*27,0)</f>
         <v>120</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="51">
         <f>OFFSET(RepRec!$B$14,(ROW(C2)-1)*27,0)</f>
         <v>70</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="51">
         <f>OFFSET(RepRec!$B$15,(ROW(D2)-1)*27,0)</f>
         <v>80</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="51">
         <f>OFFSET(RepRec!$B$16,(ROW(E2)-1)*27,0)</f>
         <v>40</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8">
-      <c r="A8" s="48">
+      <c r="A8" s="47">
         <v>3.0</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="51">
         <f>OFFSET(RepRec!$B$13,(ROW(B3)-1)*27,0)</f>
         <v>200</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="51">
         <f>OFFSET(RepRec!$B$14,(ROW(C3)-1)*27,0)</f>
         <v>90</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="51">
         <f>OFFSET(RepRec!$B$15,(ROW(D3)-1)*27,0)</f>
         <v>120</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="51">
         <f>OFFSET(RepRec!$B$16,(ROW(E3)-1)*27,0)</f>
         <v>45</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9">
-      <c r="A9" s="48">
+      <c r="A9" s="47">
         <v>4.0</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="51">
         <f>OFFSET(RepRec!$B$13,(ROW(B4)-1)*27,0)</f>
         <v>130</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="51">
         <f>OFFSET(RepRec!$B$14,(ROW(C4)-1)*27,0)</f>
         <v>80</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="51">
         <f>OFFSET(RepRec!$B$15,(ROW(D4)-1)*27,0)</f>
         <v>110</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="51">
         <f>OFFSET(RepRec!$B$16,(ROW(E4)-1)*27,0)</f>
         <v>50</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10">
-      <c r="A10" s="48">
+      <c r="A10" s="47">
         <v>5.0</v>
       </c>
-      <c r="B10" s="41" t="str">
+      <c r="B10" s="51" t="str">
         <f>OFFSET(RepRec!$B$13,(ROW(B5)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C10" s="41" t="str">
+      <c r="C10" s="51" t="str">
         <f>OFFSET(RepRec!$B$14,(ROW(C5)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D10" s="41" t="str">
+      <c r="D10" s="51" t="str">
         <f>OFFSET(RepRec!$B$15,(ROW(D5)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E10" s="41" t="str">
+      <c r="E10" s="51" t="str">
         <f>OFFSET(RepRec!$B$16,(ROW(E5)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
     </row>
     <row r="11">
-      <c r="A11" s="48">
+      <c r="A11" s="47">
         <v>6.0</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="51">
         <f>OFFSET(RepRec!$B$13,(ROW(B6)-1)*27,0)</f>
         <v>200</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="51">
         <f>OFFSET(RepRec!$B$14,(ROW(C6)-1)*27,0)</f>
         <v>70</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="51">
         <f>OFFSET(RepRec!$B$15,(ROW(D6)-1)*27,0)</f>
         <v>140</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="51">
         <f>OFFSET(RepRec!$B$16,(ROW(E6)-1)*27,0)</f>
         <v>50</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
     </row>
     <row r="12">
-      <c r="A12" s="48">
+      <c r="A12" s="47">
         <v>7.0</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="51">
         <f>OFFSET(RepRec!$B$13,(ROW(B7)-1)*27,0)</f>
         <v>240</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="51">
         <f>OFFSET(RepRec!$B$14,(ROW(C7)-1)*27,0)</f>
         <v>75</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="51">
         <f>OFFSET(RepRec!$B$15,(ROW(D7)-1)*27,0)</f>
         <v>120</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="51">
         <f>OFFSET(RepRec!$B$16,(ROW(E7)-1)*27,0)</f>
         <v>52.5</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
     </row>
     <row r="13">
-      <c r="A13" s="48">
-        <v>8.0</v>
-      </c>
-      <c r="B13" s="41">
+      <c r="A13" s="47">
+        <v>8.0</v>
+      </c>
+      <c r="B13" s="51">
         <f>OFFSET(RepRec!$B$13,(ROW(B8)-1)*27,0)</f>
         <v>200</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="51">
         <f>OFFSET(RepRec!$B$14,(ROW(C8)-1)*27,0)</f>
         <v>60</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="51">
         <f>OFFSET(RepRec!$B$15,(ROW(D8)-1)*27,0)</f>
         <v>140</v>
       </c>
-      <c r="E13" s="41" t="str">
+      <c r="E13" s="51" t="str">
         <f>OFFSET(RepRec!$B$16,(ROW(E8)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14">
-      <c r="A14" s="48">
+      <c r="A14" s="47">
         <v>9.0</v>
       </c>
-      <c r="B14" s="41" t="str">
+      <c r="B14" s="51" t="str">
         <f>OFFSET(RepRec!$B$13,(ROW(B9)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="51">
         <f>OFFSET(RepRec!$B$14,(ROW(C9)-1)*27,0)</f>
         <v>73</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="51">
         <f>OFFSET(RepRec!$B$15,(ROW(D9)-1)*27,0)</f>
         <v>140</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="51">
         <f>OFFSET(RepRec!$B$16,(ROW(E9)-1)*27,0)</f>
         <v>55</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
     </row>
     <row r="15">
-      <c r="A15" s="48">
-        <v>10.0</v>
-      </c>
-      <c r="B15" s="41">
+      <c r="A15" s="47">
+        <v>10.0</v>
+      </c>
+      <c r="B15" s="51">
         <f>OFFSET(RepRec!$B$13,(ROW(B10)-1)*27,0)</f>
         <v>185</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="51">
         <f>OFFSET(RepRec!$B$14,(ROW(C10)-1)*27,0)</f>
         <v>75</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="51">
         <f>OFFSET(RepRec!$B$15,(ROW(D10)-1)*27,0)</f>
         <v>150</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="51">
         <f>OFFSET(RepRec!$B$16,(ROW(E10)-1)*27,0)</f>
         <v>55</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
     </row>
     <row r="16">
-      <c r="A16" s="48">
+      <c r="A16" s="47">
         <v>11.0</v>
       </c>
-      <c r="B16" s="41" t="str">
+      <c r="B16" s="51" t="str">
         <f>OFFSET(RepRec!$B$13,(ROW(B11)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C16" s="41" t="str">
+      <c r="C16" s="51" t="str">
         <f>OFFSET(RepRec!$B$14,(ROW(C11)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D16" s="41" t="str">
+      <c r="D16" s="51" t="str">
         <f>OFFSET(RepRec!$B$15,(ROW(D11)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E16" s="41" t="str">
+      <c r="E16" s="51" t="str">
         <f>OFFSET(RepRec!$B$16,(ROW(E11)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
     </row>
     <row r="17">
-      <c r="A17" s="48">
+      <c r="A17" s="47">
         <v>12.0</v>
       </c>
-      <c r="B17" s="41" t="str">
+      <c r="B17" s="51" t="str">
         <f>OFFSET(RepRec!$B$13,(ROW(B12)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C17" s="41" t="str">
+      <c r="C17" s="51" t="str">
         <f>OFFSET(RepRec!$B$14,(ROW(C12)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D17" s="41" t="str">
+      <c r="D17" s="51" t="str">
         <f>OFFSET(RepRec!$B$15,(ROW(D12)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E17" s="41" t="str">
+      <c r="E17" s="51" t="str">
         <f>OFFSET(RepRec!$B$16,(ROW(E12)-1)*27,0)</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="48">
+      <c r="A18" s="47">
         <v>13.0</v>
       </c>
-      <c r="B18" s="41" t="str">
+      <c r="B18" s="51" t="str">
         <f>OFFSET(RepRec!$B$13,(ROW(B13)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C18" s="41" t="str">
+      <c r="C18" s="51" t="str">
         <f>OFFSET(RepRec!$B$14,(ROW(C13)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D18" s="41" t="str">
+      <c r="D18" s="51" t="str">
         <f>OFFSET(RepRec!$B$15,(ROW(D13)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E18" s="41" t="str">
+      <c r="E18" s="51" t="str">
         <f>OFFSET(RepRec!$B$16,(ROW(E13)-1)*27,0)</f>
         <v/>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="48">
+      <c r="A19" s="47">
         <v>14.0</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="51">
         <f>OFFSET(RepRec!$B$13,(ROW(B14)-1)*27,0)</f>
         <v>180</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="51">
         <f>OFFSET(RepRec!$B$14,(ROW(C14)-1)*27,0)</f>
         <v>65</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="51">
         <f>OFFSET(RepRec!$B$15,(ROW(D14)-1)*27,0)</f>
         <v>135</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="51">
         <f>OFFSET(RepRec!$B$16,(ROW(E14)-1)*27,0)</f>
         <v>40</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="48">
+      <c r="A20" s="47">
         <v>15.0</v>
       </c>
-      <c r="B20" s="41" t="str">
+      <c r="B20" s="51" t="str">
         <f>OFFSET(RepRec!$B$13,(ROW(B15)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C20" s="41" t="str">
+      <c r="C20" s="51" t="str">
         <f>OFFSET(RepRec!$B$14,(ROW(C15)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D20" s="41" t="str">
+      <c r="D20" s="51" t="str">
         <f>OFFSET(RepRec!$B$15,(ROW(D15)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E20" s="41" t="str">
+      <c r="E20" s="51" t="str">
         <f>OFFSET(RepRec!$B$16,(ROW(E15)-1)*27,0)</f>
         <v/>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="48">
+      <c r="A21" s="47">
         <v>16.0</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="51">
         <f>OFFSET(RepRec!$B$13,(ROW(B16)-1)*27,0)</f>
         <v>165</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="51">
         <f>OFFSET(RepRec!$B$14,(ROW(C16)-1)*27,0)</f>
         <v>78</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="51">
         <f>OFFSET(RepRec!$B$15,(ROW(D16)-1)*27,0)</f>
         <v>130</v>
       </c>
-      <c r="E21" s="41" t="str">
+      <c r="E21" s="51" t="str">
         <f>OFFSET(RepRec!$B$16,(ROW(E16)-1)*27,0)</f>
         <v/>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="48">
+      <c r="A22" s="47">
         <v>17.0</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="51">
         <f>OFFSET(RepRec!$B$13,(ROW(B17)-1)*27,0)</f>
         <v>165</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="51">
         <f>OFFSET(RepRec!$B$14,(ROW(C17)-1)*27,0)</f>
         <v>80</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="51">
         <f>OFFSET(RepRec!$B$15,(ROW(D17)-1)*27,0)</f>
         <v>140</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="51">
         <f>OFFSET(RepRec!$B$16,(ROW(E17)-1)*27,0)</f>
         <v>50</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="48">
+      <c r="A23" s="47">
         <v>18.0</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="51">
         <f>OFFSET(RepRec!$B$13,(ROW(B18)-1)*27,0)</f>
         <v>170</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="51">
         <f>OFFSET(RepRec!$B$14,(ROW(C18)-1)*27,0)</f>
         <v>160</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="51">
         <f>OFFSET(RepRec!$B$15,(ROW(D18)-1)*27,0)</f>
         <v>150</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="51">
         <f>OFFSET(RepRec!$B$16,(ROW(E18)-1)*27,0)</f>
         <v>55</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="48">
+      <c r="A24" s="47">
         <v>19.0</v>
       </c>
-      <c r="B24" s="41" t="str">
+      <c r="B24" s="51" t="str">
         <f>OFFSET(RepRec!$B$13,(ROW(B19)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C24" s="41" t="str">
+      <c r="C24" s="51" t="str">
         <f>OFFSET(RepRec!$B$14,(ROW(C19)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D24" s="41" t="str">
+      <c r="D24" s="51" t="str">
         <f>OFFSET(RepRec!$B$15,(ROW(D19)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E24" s="41" t="str">
+      <c r="E24" s="51" t="str">
         <f>OFFSET(RepRec!$B$16,(ROW(E19)-1)*27,0)</f>
         <v/>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="48">
+      <c r="A25" s="47">
         <v>20.0</v>
       </c>
-      <c r="B25" s="41" t="str">
+      <c r="B25" s="51" t="str">
         <f>OFFSET(RepRec!$B$13,(ROW(B20)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C25" s="41" t="str">
+      <c r="C25" s="51" t="str">
         <f>OFFSET(RepRec!$B$14,(ROW(C20)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D25" s="41" t="str">
+      <c r="D25" s="51" t="str">
         <f>OFFSET(RepRec!$B$15,(ROW(D20)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E25" s="41" t="str">
+      <c r="E25" s="51" t="str">
         <f>OFFSET(RepRec!$B$16,(ROW(E20)-1)*27,0)</f>
         <v/>
       </c>
@@ -15978,629 +15866,629 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="49">
+      <c r="A1" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="48">
         <f t="shared" ref="B1:F1" si="1">MAX(B6:B20)</f>
         <v>18</v>
       </c>
-      <c r="C1" s="49">
+      <c r="C1" s="48">
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="D1" s="49">
+      <c r="D1" s="48">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="E1" s="49">
+      <c r="E1" s="48">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="F1" s="49">
+      <c r="F1" s="48">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="48">
+      <c r="A2" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="47">
         <v>40.0</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="47">
         <v>42.0</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="47">
         <v>88.0</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="47">
         <v>84.0</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="47">
         <v>89.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="49">
+      <c r="A3" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="48">
         <f t="shared" ref="B3:F3" si="2">ROUND(B1*1/0.86, 0)</f>
         <v>21</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="48">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="48">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="48">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="48">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="51">
+      <c r="A4" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="50">
         <f t="shared" ref="B4:F4" si="3">B3/B2</f>
         <v>0.525</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="50">
         <f t="shared" si="3"/>
         <v>0.380952381</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="50">
         <f t="shared" si="3"/>
         <v>0.7954545455</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="50">
         <f t="shared" si="3"/>
         <v>0.7619047619</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="50">
         <f t="shared" si="3"/>
         <v>0.5280898876</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5">
-      <c r="A5" s="48" t="s">
-        <v>99</v>
+      <c r="A5" s="47" t="s">
+        <v>90</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="41"/>
+        <v>66</v>
+      </c>
+      <c r="G5" s="51"/>
     </row>
     <row r="6">
-      <c r="A6" s="48">
+      <c r="A6" s="47">
         <v>1.0</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="51">
         <f>OFFSET(RepRec!$B$18,(ROW(B1)-1)*27,0)</f>
         <v>12</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="51">
         <f>OFFSET(RepRec!$B$19,(ROW(C1)-1)*27,0)</f>
         <v>6</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="51">
         <f>OFFSET(RepRec!$B$20,(ROW(D1)-1)*27,0)</f>
         <v>50</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="51">
         <f>OFFSET(RepRec!$B$21,(ROW(E1)-1)*27,0)</f>
         <v>40</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="51">
         <f>OFFSET(RepRec!$B$22,(ROW(F1)-1)*27,0)</f>
         <v>25</v>
       </c>
-      <c r="G6" s="41"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7">
-      <c r="A7" s="48">
+      <c r="A7" s="47">
         <v>2.0</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="51">
         <f>OFFSET(RepRec!$B$18,(ROW(B2)-1)*27,0)</f>
         <v>16</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="51">
         <f>OFFSET(RepRec!$B$19,(ROW(C2)-1)*27,0)</f>
         <v>8</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="51">
         <f>OFFSET(RepRec!$B$20,(ROW(D2)-1)*27,0)</f>
         <v>45</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="51">
         <f>OFFSET(RepRec!$B$21,(ROW(E2)-1)*27,0)</f>
         <v>50</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="51">
         <f>OFFSET(RepRec!$B$22,(ROW(F2)-1)*27,0)</f>
         <v>30</v>
       </c>
-      <c r="G7" s="41"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8">
-      <c r="A8" s="48">
+      <c r="A8" s="47">
         <v>3.0</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="51">
         <f>OFFSET(RepRec!$B$18,(ROW(B3)-1)*27,0)</f>
         <v>18</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="51">
         <f>OFFSET(RepRec!$B$19,(ROW(C3)-1)*27,0)</f>
         <v>9</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="51">
         <f>OFFSET(RepRec!$B$20,(ROW(D3)-1)*27,0)</f>
         <v>50</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="51">
         <f>OFFSET(RepRec!$B$21,(ROW(E3)-1)*27,0)</f>
         <v>55</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="51">
         <f>OFFSET(RepRec!$B$22,(ROW(F3)-1)*27,0)</f>
         <v>40</v>
       </c>
-      <c r="G8" s="41"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9">
-      <c r="A9" s="48">
+      <c r="A9" s="47">
         <v>4.0</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="51">
         <f>OFFSET(RepRec!$B$18,(ROW(B4)-1)*27,0)</f>
         <v>18</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="51">
         <f>OFFSET(RepRec!$B$19,(ROW(C4)-1)*27,0)</f>
         <v>9.5</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="51">
         <f>OFFSET(RepRec!$B$20,(ROW(D4)-1)*27,0)</f>
         <v>50</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="51">
         <f>OFFSET(RepRec!$B$21,(ROW(E4)-1)*27,0)</f>
         <v>55</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="51">
         <f>OFFSET(RepRec!$B$22,(ROW(F4)-1)*27,0)</f>
         <v>40</v>
       </c>
-      <c r="G9" s="41"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10">
-      <c r="A10" s="48">
+      <c r="A10" s="47">
         <v>5.0</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="51">
         <f>OFFSET(RepRec!$B$18,(ROW(B5)-1)*27,0)</f>
         <v>18</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="51">
         <f>OFFSET(RepRec!$B$19,(ROW(C5)-1)*27,0)</f>
         <v>12</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="51">
         <f>OFFSET(RepRec!$B$20,(ROW(D5)-1)*27,0)</f>
         <v>50</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="51">
         <f>OFFSET(RepRec!$B$21,(ROW(E5)-1)*27,0)</f>
         <v>55</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="51">
         <f>OFFSET(RepRec!$B$22,(ROW(F5)-1)*27,0)</f>
         <v>30</v>
       </c>
-      <c r="G10" s="41"/>
+      <c r="G10" s="51"/>
     </row>
     <row r="11">
-      <c r="A11" s="48">
+      <c r="A11" s="47">
         <v>6.0</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="51">
         <f>OFFSET(RepRec!$B$18,(ROW(B6)-1)*27,0)</f>
         <v>18</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="51">
         <f>OFFSET(RepRec!$B$19,(ROW(C6)-1)*27,0)</f>
         <v>12</v>
       </c>
-      <c r="D11" s="41" t="str">
+      <c r="D11" s="51" t="str">
         <f>OFFSET(RepRec!$B$20,(ROW(D6)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="51">
         <f>OFFSET(RepRec!$B$21,(ROW(E6)-1)*27,0)</f>
         <v>55</v>
       </c>
-      <c r="F11" s="41" t="str">
+      <c r="F11" s="51" t="str">
         <f>OFFSET(RepRec!$B$22,(ROW(F6)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="G11" s="41"/>
+      <c r="G11" s="51"/>
     </row>
     <row r="12">
-      <c r="A12" s="48">
+      <c r="A12" s="47">
         <v>7.0</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="51">
         <f>OFFSET(RepRec!$B$18,(ROW(B7)-1)*27,0)</f>
         <v>18</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="51">
         <f>OFFSET(RepRec!$B$19,(ROW(C7)-1)*27,0)</f>
         <v>13</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="51">
         <f>OFFSET(RepRec!$B$20,(ROW(D7)-1)*27,0)</f>
         <v>50</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="51">
         <f>OFFSET(RepRec!$B$21,(ROW(E7)-1)*27,0)</f>
         <v>55</v>
       </c>
-      <c r="F12" s="41" t="str">
+      <c r="F12" s="51" t="str">
         <f>OFFSET(RepRec!$B$22,(ROW(F7)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="G12" s="41"/>
+      <c r="G12" s="51"/>
     </row>
     <row r="13">
-      <c r="A13" s="48">
-        <v>8.0</v>
-      </c>
-      <c r="B13" s="41">
+      <c r="A13" s="47">
+        <v>8.0</v>
+      </c>
+      <c r="B13" s="51">
         <f>OFFSET(RepRec!$B$18,(ROW(B8)-1)*27,0)</f>
         <v>18</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="51">
         <f>OFFSET(RepRec!$B$19,(ROW(C8)-1)*27,0)</f>
         <v>13</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="51">
         <f>OFFSET(RepRec!$B$20,(ROW(D8)-1)*27,0)</f>
         <v>55</v>
       </c>
-      <c r="E13" s="41" t="str">
+      <c r="E13" s="51" t="str">
         <f>OFFSET(RepRec!$B$21,(ROW(E8)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F13" s="41" t="str">
+      <c r="F13" s="51" t="str">
         <f>OFFSET(RepRec!$B$22,(ROW(F8)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="G13" s="41"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14">
-      <c r="A14" s="48">
+      <c r="A14" s="47">
         <v>9.0</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="51">
         <f>OFFSET(RepRec!$B$18,(ROW(B9)-1)*27,0)</f>
         <v>18</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="51">
         <f>OFFSET(RepRec!$B$19,(ROW(C9)-1)*27,0)</f>
         <v>13</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="51">
         <f>OFFSET(RepRec!$B$20,(ROW(D9)-1)*27,0)</f>
         <v>60</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="51">
         <f>OFFSET(RepRec!$B$21,(ROW(E9)-1)*27,0)</f>
         <v>55</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="51">
         <f>OFFSET(RepRec!$B$22,(ROW(F9)-1)*27,0)</f>
         <v>40</v>
       </c>
-      <c r="G14" s="41"/>
+      <c r="G14" s="51"/>
     </row>
     <row r="15">
-      <c r="A15" s="48">
-        <v>10.0</v>
-      </c>
-      <c r="B15" s="41">
+      <c r="A15" s="47">
+        <v>10.0</v>
+      </c>
+      <c r="B15" s="51">
         <f>OFFSET(RepRec!$B$18,(ROW(B10)-1)*27,0)</f>
         <v>18</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="51">
         <f>OFFSET(RepRec!$B$19,(ROW(C10)-1)*27,0)</f>
         <v>13</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="51">
         <f>OFFSET(RepRec!$B$20,(ROW(D10)-1)*27,0)</f>
         <v>60</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="51">
         <f>OFFSET(RepRec!$B$21,(ROW(E10)-1)*27,0)</f>
         <v>55</v>
       </c>
-      <c r="F15" s="41" t="str">
+      <c r="F15" s="51" t="str">
         <f>OFFSET(RepRec!$B$22,(ROW(F10)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="G15" s="41"/>
+      <c r="G15" s="51"/>
     </row>
     <row r="16">
-      <c r="A16" s="48">
+      <c r="A16" s="47">
         <v>11.0</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="51">
         <f>OFFSET(RepRec!$B$18,(ROW(B11)-1)*27,0)</f>
         <v>18</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="51">
         <f>OFFSET(RepRec!$B$19,(ROW(C11)-1)*27,0)</f>
         <v>13.5</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="51">
         <f>OFFSET(RepRec!$B$20,(ROW(D11)-1)*27,0)</f>
         <v>60</v>
       </c>
-      <c r="E16" s="41" t="str">
+      <c r="E16" s="51" t="str">
         <f>OFFSET(RepRec!$B$21,(ROW(E11)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="51">
         <f>OFFSET(RepRec!$B$22,(ROW(F11)-1)*27,0)</f>
         <v>40</v>
       </c>
-      <c r="G16" s="41"/>
+      <c r="G16" s="51"/>
     </row>
     <row r="17">
-      <c r="A17" s="48">
+      <c r="A17" s="47">
         <v>12.0</v>
       </c>
-      <c r="B17" s="41" t="str">
+      <c r="B17" s="51" t="str">
         <f>OFFSET(RepRec!$B$18,(ROW(B12)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C17" s="41" t="str">
+      <c r="C17" s="51" t="str">
         <f>OFFSET(RepRec!$B$19,(ROW(C12)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D17" s="41" t="str">
+      <c r="D17" s="51" t="str">
         <f>OFFSET(RepRec!$B$20,(ROW(D12)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E17" s="41" t="str">
+      <c r="E17" s="51" t="str">
         <f>OFFSET(RepRec!$B$21,(ROW(E12)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F17" s="41" t="str">
+      <c r="F17" s="51" t="str">
         <f>OFFSET(RepRec!$B$22,(ROW(F12)-1)*27,0)</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="48">
+      <c r="A18" s="47">
         <v>13.0</v>
       </c>
-      <c r="B18" s="41" t="str">
+      <c r="B18" s="51" t="str">
         <f>OFFSET(RepRec!$B$18,(ROW(B13)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C18" s="41" t="str">
+      <c r="C18" s="51" t="str">
         <f>OFFSET(RepRec!$B$19,(ROW(C13)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D18" s="41" t="str">
+      <c r="D18" s="51" t="str">
         <f>OFFSET(RepRec!$B$20,(ROW(D13)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E18" s="41" t="str">
+      <c r="E18" s="51" t="str">
         <f>OFFSET(RepRec!$B$21,(ROW(E13)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F18" s="41" t="str">
+      <c r="F18" s="51" t="str">
         <f>OFFSET(RepRec!$B$22,(ROW(F13)-1)*27,0)</f>
         <v/>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="48">
+      <c r="A19" s="47">
         <v>14.0</v>
       </c>
-      <c r="B19" s="41" t="str">
+      <c r="B19" s="51" t="str">
         <f>OFFSET(RepRec!$B$18,(ROW(B14)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C19" s="41" t="str">
+      <c r="C19" s="51" t="str">
         <f>OFFSET(RepRec!$B$19,(ROW(C14)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D19" s="41" t="str">
+      <c r="D19" s="51" t="str">
         <f>OFFSET(RepRec!$B$20,(ROW(D14)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E19" s="41" t="str">
+      <c r="E19" s="51" t="str">
         <f>OFFSET(RepRec!$B$21,(ROW(E14)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F19" s="41" t="str">
+      <c r="F19" s="51" t="str">
         <f>OFFSET(RepRec!$B$22,(ROW(F14)-1)*27,0)</f>
         <v/>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="48">
+      <c r="A20" s="47">
         <v>15.0</v>
       </c>
-      <c r="B20" s="41" t="str">
+      <c r="B20" s="51" t="str">
         <f>OFFSET(RepRec!$B$18,(ROW(B15)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C20" s="41" t="str">
+      <c r="C20" s="51" t="str">
         <f>OFFSET(RepRec!$B$19,(ROW(C15)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D20" s="41" t="str">
+      <c r="D20" s="51" t="str">
         <f>OFFSET(RepRec!$B$20,(ROW(D15)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E20" s="41" t="str">
+      <c r="E20" s="51" t="str">
         <f>OFFSET(RepRec!$B$21,(ROW(E15)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F20" s="41" t="str">
+      <c r="F20" s="51" t="str">
         <f>OFFSET(RepRec!$B$22,(ROW(F15)-1)*27,0)</f>
         <v/>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="48">
+      <c r="A21" s="47">
         <v>16.0</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="51">
         <f>OFFSET(RepRec!$B$18,(ROW(B16)-1)*27,0)</f>
         <v>18</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="51">
         <f>OFFSET(RepRec!$B$19,(ROW(C16)-1)*27,0)</f>
         <v>10</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="51">
         <f>OFFSET(RepRec!$B$20,(ROW(D16)-1)*27,0)</f>
         <v>45</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="51">
         <f>OFFSET(RepRec!$B$21,(ROW(E16)-1)*27,0)</f>
         <v>55</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="51">
         <f>OFFSET(RepRec!$B$22,(ROW(F16)-1)*27,0)</f>
         <v>40</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="48">
+      <c r="A22" s="47">
         <v>17.0</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="51">
         <f>OFFSET(RepRec!$B$18,(ROW(B17)-1)*27,0)</f>
         <v>18</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="51">
         <f>OFFSET(RepRec!$B$19,(ROW(C17)-1)*27,0)</f>
         <v>15</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="51">
         <f>OFFSET(RepRec!$B$20,(ROW(D17)-1)*27,0)</f>
         <v>55</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="51">
         <f>OFFSET(RepRec!$B$21,(ROW(E17)-1)*27,0)</f>
         <v>55</v>
       </c>
-      <c r="F22" s="41" t="str">
+      <c r="F22" s="51" t="str">
         <f>OFFSET(RepRec!$B$22,(ROW(F17)-1)*27,0)</f>
         <v/>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="48">
+      <c r="A23" s="47">
         <v>18.0</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="51">
         <f>OFFSET(RepRec!$B$18,(ROW(B18)-1)*27,0)</f>
         <v>18</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="51">
         <f>OFFSET(RepRec!$B$19,(ROW(C18)-1)*27,0)</f>
         <v>17.5</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="51">
         <f>OFFSET(RepRec!$B$20,(ROW(D18)-1)*27,0)</f>
         <v>60</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="51">
         <f>OFFSET(RepRec!$B$21,(ROW(E18)-1)*27,0)</f>
         <v>55</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="51">
         <f>OFFSET(RepRec!$B$22,(ROW(F18)-1)*27,0)</f>
         <v>30</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="48">
+      <c r="A24" s="47">
         <v>19.0</v>
       </c>
-      <c r="B24" s="41" t="str">
+      <c r="B24" s="51" t="str">
         <f>OFFSET(RepRec!$B$18,(ROW(B19)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C24" s="41" t="str">
+      <c r="C24" s="51" t="str">
         <f>OFFSET(RepRec!$B$19,(ROW(C19)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D24" s="41" t="str">
+      <c r="D24" s="51" t="str">
         <f>OFFSET(RepRec!$B$20,(ROW(D19)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E24" s="41" t="str">
+      <c r="E24" s="51" t="str">
         <f>OFFSET(RepRec!$B$21,(ROW(E19)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F24" s="41" t="str">
+      <c r="F24" s="51" t="str">
         <f>OFFSET(RepRec!$B$22,(ROW(F19)-1)*27,0)</f>
         <v/>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="48">
+      <c r="A25" s="47">
         <v>20.0</v>
       </c>
-      <c r="B25" s="41" t="str">
+      <c r="B25" s="51" t="str">
         <f>OFFSET(RepRec!$B$18,(ROW(B20)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C25" s="41" t="str">
+      <c r="C25" s="51" t="str">
         <f>OFFSET(RepRec!$B$19,(ROW(C20)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D25" s="41" t="str">
+      <c r="D25" s="51" t="str">
         <f>OFFSET(RepRec!$B$20,(ROW(D20)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E25" s="41" t="str">
+      <c r="E25" s="51" t="str">
         <f>OFFSET(RepRec!$B$21,(ROW(E20)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F25" s="41" t="str">
+      <c r="F25" s="51" t="str">
         <f>OFFSET(RepRec!$B$22,(ROW(F20)-1)*27,0)</f>
         <v/>
       </c>
@@ -16654,118 +16542,118 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="49">
+      <c r="A1" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="48">
         <f t="shared" ref="B1:G1" si="1">MAX(B6:B20)</f>
         <v>9</v>
       </c>
-      <c r="C1" s="49">
+      <c r="C1" s="48">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D1" s="49">
+      <c r="D1" s="48">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E1" s="49">
+      <c r="E1" s="48">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F1" s="49">
+      <c r="F1" s="48">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="G1" s="49">
+      <c r="G1" s="48">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="48">
+      <c r="A2" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="47">
         <v>23.0</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="47">
         <v>16.0</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="47">
         <v>48.0</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="47">
         <v>33.0</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="47">
         <v>81.0</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="47">
         <v>122.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="49">
+      <c r="A3" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="48">
         <f t="shared" ref="B3:F3" si="2">ROUND(B1*1/0.81, 0)</f>
         <v>11</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="48">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="48">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="48">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="48">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="48">
         <f>ROUND(G1*1/0.92, 0)</f>
         <v>98</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="51">
+      <c r="A4" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="50">
         <f t="shared" ref="B4:G4" si="3">B3/B2</f>
         <v>0.4782608696</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="50">
         <f t="shared" si="3"/>
         <v>0.6875</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="50">
         <f t="shared" si="3"/>
         <v>0.5208333333</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="50">
         <f t="shared" si="3"/>
         <v>0.4545454545</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="50">
         <f t="shared" si="3"/>
         <v>0.950617284</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="50">
         <f t="shared" si="3"/>
         <v>0.8032786885</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="48" t="s">
-        <v>99</v>
+      <c r="A5" s="47" t="s">
+        <v>90</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>26</v>
@@ -16787,578 +16675,578 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="48">
+      <c r="A6" s="47">
         <v>1.0</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="51">
         <f>OFFSET(RepRec!$B$24,(ROW(B1)-1)*27,0)</f>
         <v>4</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="51">
         <f>OFFSET(RepRec!$B$25,(ROW(C1)-1)*27,0)</f>
         <v>4</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="51">
         <f>OFFSET(RepRec!$B$26,(ROW(D1)-1)*27,0)</f>
         <v>10</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="51">
         <f>OFFSET(RepRec!$B$27,(ROW(E1)-1)*27,0)</f>
         <v>8</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="51">
         <f>OFFSET(RepRec!$B$28,(ROW(F1)-1)*27,0)</f>
         <v>40</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="48">
+      <c r="A7" s="47">
         <v>2.0</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="51">
         <f>OFFSET(RepRec!$B$24,(ROW(B2)-1)*27,0)</f>
         <v>5</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="51">
         <f>OFFSET(RepRec!$B$25,(ROW(C2)-1)*27,0)</f>
         <v>5</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="51">
         <f>OFFSET(RepRec!$B$26,(ROW(D2)-1)*27,0)</f>
         <v>12.5</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="51">
         <f>OFFSET(RepRec!$B$27,(ROW(E2)-1)*27,0)</f>
         <v>8</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="51">
         <f>OFFSET(RepRec!$B$28,(ROW(F2)-1)*27,0)</f>
         <v>45</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="51">
         <f>OFFSET(RepRec!$B$29,(ROW(G2)-1)*27,0)</f>
         <v>30</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="48">
+      <c r="A8" s="47">
         <v>3.0</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="51">
         <f>OFFSET(RepRec!$B$24,(ROW(B3)-1)*27,0)</f>
         <v>6</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="51">
         <f>OFFSET(RepRec!$B$25,(ROW(C3)-1)*27,0)</f>
         <v>6</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="51">
         <f>OFFSET(RepRec!$B$26,(ROW(D3)-1)*27,0)</f>
         <v>15</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="51">
         <f>OFFSET(RepRec!$B$27,(ROW(E3)-1)*27,0)</f>
         <v>9</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="51">
         <f>OFFSET(RepRec!$B$28,(ROW(F3)-1)*27,0)</f>
         <v>50</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="51">
         <f>OFFSET(RepRec!$B$29,(ROW(G3)-1)*27,0)</f>
         <v>80</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="48">
+      <c r="A9" s="47">
         <v>4.0</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="51">
         <f>OFFSET(RepRec!$B$24,(ROW(B4)-1)*27,0)</f>
         <v>6</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="51">
         <f>OFFSET(RepRec!$B$25,(ROW(C4)-1)*27,0)</f>
         <v>6</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="51">
         <f>OFFSET(RepRec!$B$26,(ROW(D4)-1)*27,0)</f>
         <v>15</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="51">
         <f>OFFSET(RepRec!$B$27,(ROW(E4)-1)*27,0)</f>
         <v>8.7</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="51">
         <f>OFFSET(RepRec!$B$28,(ROW(F4)-1)*27,0)</f>
         <v>50</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="51">
         <f>OFFSET(RepRec!$B$29,(ROW(G4)-1)*27,0)</f>
         <v>80</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="48">
+      <c r="A10" s="47">
         <v>5.0</v>
       </c>
-      <c r="B10" s="41" t="str">
+      <c r="B10" s="51" t="str">
         <f>OFFSET(RepRec!$B$24,(ROW(B5)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C10" s="41" t="str">
+      <c r="C10" s="51" t="str">
         <f>OFFSET(RepRec!$B$25,(ROW(C5)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D10" s="41" t="str">
+      <c r="D10" s="51" t="str">
         <f>OFFSET(RepRec!$B$26,(ROW(D5)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E10" s="41" t="str">
+      <c r="E10" s="51" t="str">
         <f>OFFSET(RepRec!$B$27,(ROW(E5)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F10" s="41" t="str">
+      <c r="F10" s="51" t="str">
         <f>OFFSET(RepRec!$B$28,(ROW(F5)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="G10" s="41" t="str">
+      <c r="G10" s="51" t="str">
         <f>OFFSET(RepRec!$B$29,(ROW(G5)-1)*27,0)</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="48">
+      <c r="A11" s="47">
         <v>6.0</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="51">
         <f>OFFSET(RepRec!$B$24,(ROW(B6)-1)*27,0)</f>
         <v>7</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="51">
         <f>OFFSET(RepRec!$B$25,(ROW(C6)-1)*27,0)</f>
         <v>7</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="51">
         <f>OFFSET(RepRec!$B$26,(ROW(D6)-1)*27,0)</f>
         <v>15</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="51">
         <f>OFFSET(RepRec!$B$27,(ROW(E6)-1)*27,0)</f>
         <v>9</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="51">
         <f>OFFSET(RepRec!$B$28,(ROW(F6)-1)*27,0)</f>
         <v>50</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="51">
         <f>OFFSET(RepRec!$B$29,(ROW(G6)-1)*27,0)</f>
         <v>80</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="48">
+      <c r="A12" s="47">
         <v>7.0</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="51">
         <f>OFFSET(RepRec!$B$24,(ROW(B7)-1)*27,0)</f>
         <v>7</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="51">
         <f>OFFSET(RepRec!$B$25,(ROW(C7)-1)*27,0)</f>
         <v>7</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="51">
         <f>OFFSET(RepRec!$B$26,(ROW(D7)-1)*27,0)</f>
         <v>15</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="51">
         <f>OFFSET(RepRec!$B$27,(ROW(E7)-1)*27,0)</f>
         <v>9.5</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="51">
         <f>OFFSET(RepRec!$B$28,(ROW(F7)-1)*27,0)</f>
         <v>57.5</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="51">
         <f>OFFSET(RepRec!$B$29,(ROW(G7)-1)*27,0)</f>
         <v>80</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="48">
-        <v>8.0</v>
-      </c>
-      <c r="B13" s="41">
+      <c r="A13" s="47">
+        <v>8.0</v>
+      </c>
+      <c r="B13" s="51">
         <f>OFFSET(RepRec!$B$24,(ROW(B8)-1)*27,0)</f>
         <v>8</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="51">
         <f>OFFSET(RepRec!$B$25,(ROW(C8)-1)*27,0)</f>
         <v>8</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="51">
         <f>OFFSET(RepRec!$B$26,(ROW(D8)-1)*27,0)</f>
         <v>15</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="51">
         <f>OFFSET(RepRec!$B$27,(ROW(E8)-1)*27,0)</f>
         <v>10</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="51">
         <f>OFFSET(RepRec!$B$28,(ROW(F8)-1)*27,0)</f>
         <v>60</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="51">
         <f>OFFSET(RepRec!$B$29,(ROW(G8)-1)*27,0)</f>
         <v>75</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="48">
+      <c r="A14" s="47">
         <v>9.0</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="51">
         <f>OFFSET(RepRec!$B$24,(ROW(B9)-1)*27,0)</f>
         <v>8</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="51">
         <f>OFFSET(RepRec!$B$25,(ROW(C9)-1)*27,0)</f>
         <v>8</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="51">
         <f>OFFSET(RepRec!$B$26,(ROW(D9)-1)*27,0)</f>
         <v>15</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="51">
         <f>OFFSET(RepRec!$B$27,(ROW(E9)-1)*27,0)</f>
         <v>10.5</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="51">
         <f>OFFSET(RepRec!$B$28,(ROW(F9)-1)*27,0)</f>
         <v>60</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="51">
         <f>OFFSET(RepRec!$B$29,(ROW(G9)-1)*27,0)</f>
         <v>80</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="48">
-        <v>10.0</v>
-      </c>
-      <c r="B15" s="41">
+      <c r="A15" s="47">
+        <v>10.0</v>
+      </c>
+      <c r="B15" s="51">
         <f>OFFSET(RepRec!$B$24,(ROW(B10)-1)*27,0)</f>
         <v>9</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="51">
         <f>OFFSET(RepRec!$B$25,(ROW(C10)-1)*27,0)</f>
         <v>9</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="51">
         <f>OFFSET(RepRec!$B$26,(ROW(D10)-1)*27,0)</f>
         <v>20</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="51">
         <f>OFFSET(RepRec!$B$27,(ROW(E10)-1)*27,0)</f>
         <v>12</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="51">
         <f>OFFSET(RepRec!$B$28,(ROW(F10)-1)*27,0)</f>
         <v>62.5</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="51">
         <f>OFFSET(RepRec!$B$29,(ROW(G10)-1)*27,0)</f>
         <v>90</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="48">
+      <c r="A16" s="47">
         <v>11.0</v>
       </c>
-      <c r="B16" s="41" t="str">
+      <c r="B16" s="51" t="str">
         <f>OFFSET(RepRec!$B$24,(ROW(B11)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C16" s="41" t="str">
+      <c r="C16" s="51" t="str">
         <f>OFFSET(RepRec!$B$25,(ROW(C11)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D16" s="41" t="str">
+      <c r="D16" s="51" t="str">
         <f>OFFSET(RepRec!$B$26,(ROW(D11)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E16" s="41" t="str">
+      <c r="E16" s="51" t="str">
         <f>OFFSET(RepRec!$B$27,(ROW(E11)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F16" s="41" t="str">
+      <c r="F16" s="51" t="str">
         <f>OFFSET(RepRec!$B$28,(ROW(F11)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="G16" s="41" t="str">
+      <c r="G16" s="51" t="str">
         <f>OFFSET(RepRec!$B$29,(ROW(G11)-1)*27,0)</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="48">
+      <c r="A17" s="47">
         <v>12.0</v>
       </c>
-      <c r="B17" s="41" t="str">
+      <c r="B17" s="51" t="str">
         <f>OFFSET(RepRec!$B$24,(ROW(B12)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C17" s="41" t="str">
+      <c r="C17" s="51" t="str">
         <f>OFFSET(RepRec!$B$25,(ROW(C12)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D17" s="41" t="str">
+      <c r="D17" s="51" t="str">
         <f>OFFSET(RepRec!$B$26,(ROW(D12)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E17" s="41" t="str">
+      <c r="E17" s="51" t="str">
         <f>OFFSET(RepRec!$B$27,(ROW(E12)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F17" s="41" t="str">
+      <c r="F17" s="51" t="str">
         <f>OFFSET(RepRec!$B$28,(ROW(F12)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="G17" s="41" t="str">
+      <c r="G17" s="51" t="str">
         <f>OFFSET(RepRec!$B$29,(ROW(G12)-1)*27,0)</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="48">
+      <c r="A18" s="47">
         <v>13.0</v>
       </c>
-      <c r="B18" s="41" t="str">
+      <c r="B18" s="51" t="str">
         <f>OFFSET(RepRec!$B$24,(ROW(B13)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C18" s="41" t="str">
+      <c r="C18" s="51" t="str">
         <f>OFFSET(RepRec!$B$25,(ROW(C13)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D18" s="41" t="str">
+      <c r="D18" s="51" t="str">
         <f>OFFSET(RepRec!$B$26,(ROW(D13)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E18" s="41" t="str">
+      <c r="E18" s="51" t="str">
         <f>OFFSET(RepRec!$B$27,(ROW(E13)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F18" s="41" t="str">
+      <c r="F18" s="51" t="str">
         <f>OFFSET(RepRec!$B$28,(ROW(F13)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="G18" s="41" t="str">
+      <c r="G18" s="51" t="str">
         <f>OFFSET(RepRec!$B$29,(ROW(G13)-1)*27,0)</f>
         <v/>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="48">
+      <c r="A19" s="47">
         <v>14.0</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="51">
         <f>OFFSET(RepRec!$B$24,(ROW(B14)-1)*27,0)</f>
         <v>6</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="51">
         <f>OFFSET(RepRec!$B$25,(ROW(C14)-1)*27,0)</f>
         <v>6</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="51">
         <f>OFFSET(RepRec!$B$26,(ROW(D14)-1)*27,0)</f>
         <v>15</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="51">
         <f>OFFSET(RepRec!$B$27,(ROW(E14)-1)*27,0)</f>
         <v>8</v>
       </c>
-      <c r="F19" s="41" t="str">
+      <c r="F19" s="51" t="str">
         <f>OFFSET(RepRec!$B$28,(ROW(F14)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="G19" s="41" t="str">
+      <c r="G19" s="51" t="str">
         <f>OFFSET(RepRec!$B$29,(ROW(G14)-1)*27,0)</f>
         <v/>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="48">
+      <c r="A20" s="47">
         <v>15.0</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="51">
         <f>OFFSET(RepRec!$B$24,(ROW(B15)-1)*27,0)</f>
         <v>8</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="51">
         <f>OFFSET(RepRec!$B$25,(ROW(C15)-1)*27,0)</f>
         <v>8</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="51">
         <f>OFFSET(RepRec!$B$26,(ROW(D15)-1)*27,0)</f>
         <v>15</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="51">
         <f>OFFSET(RepRec!$B$27,(ROW(E15)-1)*27,0)</f>
         <v>10</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="51">
         <f>OFFSET(RepRec!$B$28,(ROW(F15)-1)*27,0)</f>
         <v>45</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="51">
         <f>OFFSET(RepRec!$B$29,(ROW(G15)-1)*27,0)</f>
         <v>90</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="48">
+      <c r="A21" s="47">
         <v>16.0</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="51">
         <f>OFFSET(RepRec!$B$24,(ROW(B16)-1)*27,0)</f>
         <v>9</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="51">
         <f>OFFSET(RepRec!$B$25,(ROW(C16)-1)*27,0)</f>
         <v>9</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="51">
         <f>OFFSET(RepRec!$B$26,(ROW(D16)-1)*27,0)</f>
         <v>16.5</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="51">
         <f>OFFSET(RepRec!$B$27,(ROW(E16)-1)*27,0)</f>
         <v>12.5</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="51">
         <f>OFFSET(RepRec!$B$28,(ROW(F16)-1)*27,0)</f>
         <v>50</v>
       </c>
       <c r="G21" s="52" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="48">
+      <c r="A22" s="47">
         <v>17.0</v>
       </c>
-      <c r="B22" s="41" t="str">
+      <c r="B22" s="51" t="str">
         <f>OFFSET(RepRec!$B$24,(ROW(B17)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C22" s="41" t="str">
+      <c r="C22" s="51" t="str">
         <f>OFFSET(RepRec!$B$25,(ROW(C17)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D22" s="41" t="str">
+      <c r="D22" s="51" t="str">
         <f>OFFSET(RepRec!$B$26,(ROW(D17)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E22" s="41" t="str">
+      <c r="E22" s="51" t="str">
         <f>OFFSET(RepRec!$B$27,(ROW(E17)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F22" s="41" t="str">
+      <c r="F22" s="51" t="str">
         <f>OFFSET(RepRec!$B$28,(ROW(F17)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="G22" s="41" t="str">
+      <c r="G22" s="51" t="str">
         <f>OFFSET(RepRec!$B$29,(ROW(G17)-1)*27,0)</f>
         <v/>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="48">
+      <c r="A23" s="47">
         <v>18.0</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="51">
         <f>OFFSET(RepRec!$B$24,(ROW(B18)-1)*27,0)</f>
         <v>9</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="51">
         <f>OFFSET(RepRec!$B$25,(ROW(C18)-1)*27,0)</f>
         <v>9</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="51">
         <f>OFFSET(RepRec!$B$26,(ROW(D18)-1)*27,0)</f>
         <v>20</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="51">
         <f>OFFSET(RepRec!$B$27,(ROW(E18)-1)*27,0)</f>
         <v>15</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="51">
         <f>OFFSET(RepRec!$B$28,(ROW(F18)-1)*27,0)</f>
         <v>55</v>
       </c>
-      <c r="G23" s="41" t="str">
+      <c r="G23" s="51" t="str">
         <f>OFFSET(RepRec!$B$29,(ROW(G18)-1)*27,0)</f>
         <v/>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="48">
+      <c r="A24" s="47">
         <v>19.0</v>
       </c>
-      <c r="B24" s="41" t="str">
+      <c r="B24" s="51" t="str">
         <f>OFFSET(RepRec!$B$24,(ROW(B19)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C24" s="41" t="str">
+      <c r="C24" s="51" t="str">
         <f>OFFSET(RepRec!$B$25,(ROW(C19)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D24" s="41" t="str">
+      <c r="D24" s="51" t="str">
         <f>OFFSET(RepRec!$B$26,(ROW(D19)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E24" s="41" t="str">
+      <c r="E24" s="51" t="str">
         <f>OFFSET(RepRec!$B$27,(ROW(E19)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F24" s="41" t="str">
+      <c r="F24" s="51" t="str">
         <f>OFFSET(RepRec!$B$28,(ROW(F19)-1)*27,0)</f>
         <v/>
       </c>
       <c r="G24" s="52" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="48">
+      <c r="A25" s="47">
         <v>20.0</v>
       </c>
-      <c r="B25" s="41" t="str">
+      <c r="B25" s="51" t="str">
         <f>OFFSET(RepRec!$B$24,(ROW(B20)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="C25" s="41" t="str">
+      <c r="C25" s="51" t="str">
         <f>OFFSET(RepRec!$B$25,(ROW(C20)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="D25" s="41" t="str">
+      <c r="D25" s="51" t="str">
         <f>OFFSET(RepRec!$B$26,(ROW(D20)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="E25" s="41" t="str">
+      <c r="E25" s="51" t="str">
         <f>OFFSET(RepRec!$B$27,(ROW(E20)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="F25" s="41" t="str">
+      <c r="F25" s="51" t="str">
         <f>OFFSET(RepRec!$B$28,(ROW(F20)-1)*27,0)</f>
         <v/>
       </c>
-      <c r="G25" s="41" t="str">
+      <c r="G25" s="51" t="str">
         <f>OFFSET(RepRec!$B$29,(ROW(G20)-1)*27,0)</f>
         <v/>
       </c>
